--- a/Simulacion_MonteCarlo/escenarios_montecarlo/escenario_004.xlsx
+++ b/Simulacion_MonteCarlo/escenarios_montecarlo/escenario_004.xlsx
@@ -693,148 +693,148 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>33.20861127805412</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>14.65074319190966</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>19.13393688437997</v>
+        <v>18.19370111212999</v>
       </c>
       <c r="F2" t="n">
-        <v>26.3137892342525</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>120.5349168766573</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.945371735564986</v>
+        <v>20.13065054532726</v>
       </c>
       <c r="I2" t="n">
-        <v>181.6313563076333</v>
+        <v>5.680697781951739</v>
       </c>
       <c r="J2" t="n">
-        <v>16.82423162515212</v>
+        <v>19.9032931017741</v>
       </c>
       <c r="K2" t="n">
-        <v>8.752620407865832</v>
+        <v>57.89247833801821</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23866038424742</v>
+        <v>51.83626842451102</v>
       </c>
       <c r="M2" t="n">
-        <v>34.85977285428546</v>
+        <v>114.6654680185785</v>
       </c>
       <c r="N2" t="n">
-        <v>74.74438694576583</v>
+        <v>173.0940788493298</v>
       </c>
       <c r="O2" t="n">
-        <v>143.1510526647797</v>
+        <v>48.87467824870291</v>
       </c>
       <c r="P2" t="n">
-        <v>140.5426414330195</v>
+        <v>40.19899401086285</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>88.49101603615082</v>
       </c>
       <c r="R2" t="n">
-        <v>71.0121615800807</v>
+        <v>48.86868931596761</v>
       </c>
       <c r="S2" t="n">
-        <v>44.16234598668809</v>
+        <v>61.62580476545187</v>
       </c>
       <c r="T2" t="n">
-        <v>49.78190221019432</v>
+        <v>38.23046679220694</v>
       </c>
       <c r="U2" t="n">
-        <v>36.52409086218083</v>
+        <v>41.61907047922116</v>
       </c>
       <c r="V2" t="n">
-        <v>32.21327473893247</v>
+        <v>48.22869590558803</v>
       </c>
       <c r="W2" t="n">
-        <v>97.48691488816146</v>
+        <v>90.75884703148439</v>
       </c>
       <c r="X2" t="n">
-        <v>73.17171606715034</v>
+        <v>51.23931135240234</v>
       </c>
       <c r="Y2" t="n">
-        <v>76.07693692673895</v>
+        <v>45.0597450626824</v>
       </c>
       <c r="Z2" t="n">
-        <v>109.0861660986673</v>
+        <v>50.72063024069932</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.33938820850025</v>
+        <v>67.69793798541153</v>
       </c>
       <c r="AB2" t="n">
-        <v>54.64219743741366</v>
+        <v>72.16762277506061</v>
       </c>
       <c r="AC2" t="n">
-        <v>127.0201645815222</v>
+        <v>81.22344421396367</v>
       </c>
       <c r="AD2" t="n">
-        <v>116.4403734689223</v>
+        <v>187.7444359484209</v>
       </c>
       <c r="AE2" t="n">
-        <v>150.888594463484</v>
+        <v>148.5412893218701</v>
       </c>
       <c r="AF2" t="n">
-        <v>163.9293952831025</v>
+        <v>103.6472058078196</v>
       </c>
       <c r="AG2" t="n">
-        <v>119.2851730131302</v>
+        <v>10.48403448346239</v>
       </c>
       <c r="AH2" t="n">
-        <v>139.9811930783908</v>
+        <v>129.6158921751626</v>
       </c>
       <c r="AI2" t="n">
-        <v>125.0007668146804</v>
+        <v>51.11713067737463</v>
       </c>
       <c r="AJ2" t="n">
-        <v>53.65196784211813</v>
+        <v>102.139741387212</v>
       </c>
       <c r="AK2" t="n">
-        <v>84.89593114559665</v>
+        <v>90.54776788277334</v>
       </c>
       <c r="AL2" t="n">
-        <v>132.1258618411329</v>
+        <v>21.378585914142</v>
       </c>
       <c r="AM2" t="n">
-        <v>48.0809119370149</v>
+        <v>46.02731238755528</v>
       </c>
       <c r="AN2" t="n">
-        <v>46.3693537216368</v>
+        <v>37.77427213661465</v>
       </c>
       <c r="AO2" t="n">
-        <v>56.46961405417583</v>
+        <v>27.97511404612207</v>
       </c>
       <c r="AP2" t="n">
-        <v>24.71088878214998</v>
+        <v>23.58192468009731</v>
       </c>
       <c r="AQ2" t="n">
-        <v>13.6280230025785</v>
+        <v>20.30329006555799</v>
       </c>
       <c r="AR2" t="n">
-        <v>20.03248776740602</v>
+        <v>28.02961970363503</v>
       </c>
       <c r="AS2" t="n">
-        <v>22.46928914894039</v>
+        <v>30.63400462794619</v>
       </c>
       <c r="AT2" t="n">
-        <v>25.6061847570331</v>
+        <v>18.21501285595566</v>
       </c>
       <c r="AU2" t="n">
-        <v>22.11499488488204</v>
+        <v>20.51995446026788</v>
       </c>
       <c r="AV2" t="n">
-        <v>17.88760967080625</v>
+        <v>22.14751873690671</v>
       </c>
       <c r="AW2" t="n">
-        <v>25.30221023513619</v>
+        <v>27.78407483343236</v>
       </c>
       <c r="AX2" t="n">
-        <v>23.53848084876589</v>
+        <v>24.78788358961091</v>
       </c>
     </row>
     <row r="3">
@@ -845,148 +845,148 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>4.778770579241622</v>
+        <v>3.022194416626923</v>
       </c>
       <c r="D3" t="n">
-        <v>1.932509135389429</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.096008416962162</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2.671990873351463</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5687491652405321</v>
+        <v>2.021185266183569</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7364146656898376</v>
+        <v>3.817123007103476</v>
       </c>
       <c r="I3" t="n">
-        <v>3.100458381698378</v>
+        <v>2.875719629377677</v>
       </c>
       <c r="J3" t="n">
-        <v>10.91710112351894</v>
+        <v>8.778601157285244</v>
       </c>
       <c r="K3" t="n">
-        <v>6.016974200394267</v>
+        <v>4.193627421722682</v>
       </c>
       <c r="L3" t="n">
-        <v>3.885946771491268</v>
+        <v>2.771235564694307</v>
       </c>
       <c r="M3" t="n">
-        <v>7.23151612613341</v>
+        <v>3.716208072487283</v>
       </c>
       <c r="N3" t="n">
-        <v>4.803887786545882</v>
+        <v>8.20121966553948</v>
       </c>
       <c r="O3" t="n">
-        <v>3.826723157850092</v>
+        <v>5.801583741237414</v>
       </c>
       <c r="P3" t="n">
-        <v>6.821338496807152</v>
+        <v>0.8811980862308877</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.675187504890228</v>
+        <v>5.15740831312212</v>
       </c>
       <c r="R3" t="n">
-        <v>1.722389128322549</v>
+        <v>7.826800569250665</v>
       </c>
       <c r="S3" t="n">
-        <v>0.7229217009332134</v>
+        <v>4.32874901224287</v>
       </c>
       <c r="T3" t="n">
-        <v>10.32606469020968</v>
+        <v>0.3645261671829036</v>
       </c>
       <c r="U3" t="n">
-        <v>4.883758775023927</v>
+        <v>5.367296186217453</v>
       </c>
       <c r="V3" t="n">
-        <v>5.013176573333222</v>
+        <v>2.684727743681838</v>
       </c>
       <c r="W3" t="n">
-        <v>2.612754704121725</v>
+        <v>4.739884733194994</v>
       </c>
       <c r="X3" t="n">
-        <v>4.843258767832198</v>
+        <v>11.68493602608554</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.515025714163095</v>
+        <v>5.808651111468846</v>
       </c>
       <c r="Z3" t="n">
-        <v>4.210843665296252</v>
+        <v>3.807685437296069</v>
       </c>
       <c r="AA3" t="n">
-        <v>4.153678143538707</v>
+        <v>2.671453940656476</v>
       </c>
       <c r="AB3" t="n">
-        <v>5.434419540273291</v>
+        <v>6.678256923642599</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.759220677391566</v>
+        <v>4.176148159617671</v>
       </c>
       <c r="AD3" t="n">
-        <v>3.101761534420877</v>
+        <v>2.744277345876627</v>
       </c>
       <c r="AE3" t="n">
-        <v>8.66698692634108</v>
+        <v>4.290795094124615</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.74881676923244</v>
+        <v>5.1725568787071</v>
       </c>
       <c r="AG3" t="n">
-        <v>5.357853517643529</v>
+        <v>4.278203889386666</v>
       </c>
       <c r="AH3" t="n">
-        <v>5.808608720139138</v>
+        <v>1.994921711407467</v>
       </c>
       <c r="AI3" t="n">
-        <v>12.32213243573621</v>
+        <v>2.692132814713369</v>
       </c>
       <c r="AJ3" t="n">
-        <v>6.979132254858104</v>
+        <v>4.591905589111525</v>
       </c>
       <c r="AK3" t="n">
-        <v>6.297812528561161</v>
+        <v>1.504980575443453</v>
       </c>
       <c r="AL3" t="n">
-        <v>4.785759129198639</v>
+        <v>1.924150940208367</v>
       </c>
       <c r="AM3" t="n">
-        <v>2.866285533017219</v>
+        <v>10.06416310203088</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.049673623198633</v>
+        <v>3.791822534183309</v>
       </c>
       <c r="AO3" t="n">
-        <v>3.179168992190598</v>
+        <v>6.330182791785701</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.483543143748586</v>
+        <v>3.369300135541596</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.6960125170927611</v>
+        <v>3.747203223193763</v>
       </c>
       <c r="AR3" t="n">
-        <v>3.734766862754067</v>
+        <v>4.813122946699522</v>
       </c>
       <c r="AS3" t="n">
-        <v>3.816497120346087</v>
+        <v>2.470638829481298</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.419955686486512</v>
+        <v>2.52516742047143</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.767563351497867</v>
+        <v>3.923756801700874</v>
       </c>
       <c r="AV3" t="n">
-        <v>4.115115177585967</v>
+        <v>3.614701884850609</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.225223881495264</v>
+        <v>2.473973233189096</v>
       </c>
       <c r="AX3" t="n">
-        <v>3.268236111728154</v>
+        <v>2.110032851356621</v>
       </c>
     </row>
     <row r="4">
@@ -997,148 +997,148 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>8.969078669795701</v>
+        <v>11.95598516892701</v>
       </c>
       <c r="D4" t="n">
-        <v>4.360684930244138</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>11.91800520332642</v>
+        <v>11.04992335381662</v>
       </c>
       <c r="F4" t="n">
-        <v>8.214000531191854</v>
+        <v>92.81709428209444</v>
       </c>
       <c r="G4" t="n">
-        <v>39.289949280095</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>175.3111854423795</v>
       </c>
       <c r="I4" t="n">
-        <v>133.9315977862266</v>
+        <v>131.1796162935267</v>
       </c>
       <c r="J4" t="n">
-        <v>138.5960284860233</v>
+        <v>30.57674703502523</v>
       </c>
       <c r="K4" t="n">
-        <v>8.45984991954554</v>
+        <v>4.82242921972097</v>
       </c>
       <c r="L4" t="n">
-        <v>63.11276551167558</v>
+        <v>163.9237187833517</v>
       </c>
       <c r="M4" t="n">
-        <v>108.7687164486593</v>
+        <v>34.30622575120478</v>
       </c>
       <c r="N4" t="n">
-        <v>41.89700221420841</v>
+        <v>9.891544491689654</v>
       </c>
       <c r="O4" t="n">
-        <v>37.17719817893713</v>
+        <v>66.65696120144081</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>29.13272906158257</v>
       </c>
       <c r="Q4" t="n">
-        <v>79.48338775739531</v>
+        <v>23.21690566978799</v>
       </c>
       <c r="R4" t="n">
-        <v>99.22109866235866</v>
+        <v>101.6640270138545</v>
       </c>
       <c r="S4" t="n">
-        <v>63.6486024589824</v>
+        <v>25.9984205573956</v>
       </c>
       <c r="T4" t="n">
-        <v>165.3550614537666</v>
+        <v>60.69880547191163</v>
       </c>
       <c r="U4" t="n">
-        <v>9.435843715293341</v>
+        <v>40.56583372401772</v>
       </c>
       <c r="V4" t="n">
-        <v>64.3424767543365</v>
+        <v>53.53991426449633</v>
       </c>
       <c r="W4" t="n">
-        <v>83.41810554214558</v>
+        <v>64.77888774526217</v>
       </c>
       <c r="X4" t="n">
-        <v>55.40995184867532</v>
+        <v>67.34017928131027</v>
       </c>
       <c r="Y4" t="n">
-        <v>28.00680493297333</v>
+        <v>131.3591391816926</v>
       </c>
       <c r="Z4" t="n">
-        <v>91.04157276431246</v>
+        <v>61.62058768955876</v>
       </c>
       <c r="AA4" t="n">
-        <v>49.36705951465475</v>
+        <v>59.39121918191945</v>
       </c>
       <c r="AB4" t="n">
-        <v>82.61139857030346</v>
+        <v>84.11863595580118</v>
       </c>
       <c r="AC4" t="n">
-        <v>82.13692161459267</v>
+        <v>101.998954569695</v>
       </c>
       <c r="AD4" t="n">
-        <v>87.39438180791258</v>
+        <v>78.91427323175085</v>
       </c>
       <c r="AE4" t="n">
-        <v>59.01327954678085</v>
+        <v>25.49365390303143</v>
       </c>
       <c r="AF4" t="n">
-        <v>61.0085027220934</v>
+        <v>83.49851918978062</v>
       </c>
       <c r="AG4" t="n">
-        <v>18.12792019835087</v>
+        <v>76.96681155925697</v>
       </c>
       <c r="AH4" t="n">
-        <v>81.61871628024774</v>
+        <v>61.66972097276287</v>
       </c>
       <c r="AI4" t="n">
-        <v>69.65314953339038</v>
+        <v>7.884507866626383</v>
       </c>
       <c r="AJ4" t="n">
-        <v>38.89033986067909</v>
+        <v>73.34052468803937</v>
       </c>
       <c r="AK4" t="n">
-        <v>12.15957383991705</v>
+        <v>19.14860967479094</v>
       </c>
       <c r="AL4" t="n">
-        <v>68.63681535976511</v>
+        <v>35.99976226314619</v>
       </c>
       <c r="AM4" t="n">
-        <v>33.75166341473555</v>
+        <v>13.51108839643057</v>
       </c>
       <c r="AN4" t="n">
-        <v>19.47209668963854</v>
+        <v>26.93126773561287</v>
       </c>
       <c r="AO4" t="n">
-        <v>26.72437230688168</v>
+        <v>19.45353595906848</v>
       </c>
       <c r="AP4" t="n">
-        <v>12.75993715177913</v>
+        <v>21.07217813718454</v>
       </c>
       <c r="AQ4" t="n">
-        <v>6.787520557542372</v>
+        <v>13.90385370084186</v>
       </c>
       <c r="AR4" t="n">
-        <v>20.70674149783513</v>
+        <v>16.2793371593113</v>
       </c>
       <c r="AS4" t="n">
-        <v>18.67356849815794</v>
+        <v>10.71224671715443</v>
       </c>
       <c r="AT4" t="n">
-        <v>9.088570266480071</v>
+        <v>16.27477658675264</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.158960186712907</v>
+        <v>7.146476411364323</v>
       </c>
       <c r="AV4" t="n">
-        <v>13.94550858667666</v>
+        <v>5.707645438090604</v>
       </c>
       <c r="AW4" t="n">
-        <v>13.90485462482654</v>
+        <v>10.57586011874829</v>
       </c>
       <c r="AX4" t="n">
-        <v>10.22676432731723</v>
+        <v>10.86893224506876</v>
       </c>
     </row>
     <row r="5">
@@ -1149,148 +1149,148 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>21.75817289571216</v>
+        <v>53.60420669613483</v>
       </c>
       <c r="D5" t="n">
-        <v>26.01229315560064</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>12.49717277252227</v>
+        <v>23.36873013198004</v>
       </c>
       <c r="F5" t="n">
-        <v>23.45018927371245</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>16.65297705363964</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>5.276411192065057</v>
+        <v>11.01588132145096</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>9.890919475833872</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>12.76284198543864</v>
       </c>
       <c r="L5" t="n">
-        <v>103.328597323173</v>
+        <v>80.7432968854614</v>
       </c>
       <c r="M5" t="n">
-        <v>39.14881661183063</v>
+        <v>110.2992651958826</v>
       </c>
       <c r="N5" t="n">
-        <v>33.22016498657123</v>
+        <v>67.15424271394903</v>
       </c>
       <c r="O5" t="n">
-        <v>41.02079223814489</v>
+        <v>66.33448117186339</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8365959628153341</v>
+        <v>36.74331027907181</v>
       </c>
       <c r="Q5" t="n">
-        <v>27.12176784938402</v>
+        <v>6.37420365343003</v>
       </c>
       <c r="R5" t="n">
-        <v>158.1284693636929</v>
+        <v>68.09605510988851</v>
       </c>
       <c r="S5" t="n">
-        <v>6.88980683490229</v>
+        <v>43.60278616383452</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>45.83799414365679</v>
       </c>
       <c r="U5" t="n">
-        <v>58.39301242572641</v>
+        <v>31.97313129243763</v>
       </c>
       <c r="V5" t="n">
-        <v>55.91495781420773</v>
+        <v>47.46765170063338</v>
       </c>
       <c r="W5" t="n">
-        <v>36.66871403002085</v>
+        <v>49.17738665452165</v>
       </c>
       <c r="X5" t="n">
-        <v>20.88530245004894</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>60.90613433193826</v>
+        <v>40.20618168418985</v>
       </c>
       <c r="Z5" t="n">
-        <v>65.96293669858368</v>
+        <v>18.93078265959156</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.95651328396075</v>
+        <v>66.67193775039451</v>
       </c>
       <c r="AB5" t="n">
-        <v>12.95526314904837</v>
+        <v>61.11760284481598</v>
       </c>
       <c r="AC5" t="n">
-        <v>22.98456839023345</v>
+        <v>25.88078422799757</v>
       </c>
       <c r="AD5" t="n">
-        <v>26.86601762484471</v>
+        <v>28.4447875755821</v>
       </c>
       <c r="AE5" t="n">
-        <v>43.92888881471593</v>
+        <v>13.51370358198431</v>
       </c>
       <c r="AF5" t="n">
-        <v>31.02718243472235</v>
+        <v>27.969747525976</v>
       </c>
       <c r="AG5" t="n">
-        <v>70.83024720968065</v>
+        <v>150.343634232521</v>
       </c>
       <c r="AH5" t="n">
-        <v>38.5325280397012</v>
+        <v>64.05482421006764</v>
       </c>
       <c r="AI5" t="n">
-        <v>45.90351169540984</v>
+        <v>54.11265867390326</v>
       </c>
       <c r="AJ5" t="n">
-        <v>48.20119813202739</v>
+        <v>19.16980998481153</v>
       </c>
       <c r="AK5" t="n">
-        <v>75.80627891319067</v>
+        <v>8.737350373554534</v>
       </c>
       <c r="AL5" t="n">
-        <v>17.12119827534919</v>
+        <v>38.45389357008762</v>
       </c>
       <c r="AM5" t="n">
-        <v>36.97062956620147</v>
+        <v>32.15227016232939</v>
       </c>
       <c r="AN5" t="n">
-        <v>24.76554691891605</v>
+        <v>32.53225521802073</v>
       </c>
       <c r="AO5" t="n">
-        <v>14.91014423773293</v>
+        <v>25.70673408934083</v>
       </c>
       <c r="AP5" t="n">
-        <v>51.5188496565235</v>
+        <v>31.85787342643875</v>
       </c>
       <c r="AQ5" t="n">
-        <v>23.74563957939464</v>
+        <v>22.40779638831492</v>
       </c>
       <c r="AR5" t="n">
-        <v>5.553112131665882</v>
+        <v>5.375448300578803</v>
       </c>
       <c r="AS5" t="n">
-        <v>18.71204407097546</v>
+        <v>17.24138567560141</v>
       </c>
       <c r="AT5" t="n">
-        <v>26.08668520031653</v>
+        <v>10.13048529927776</v>
       </c>
       <c r="AU5" t="n">
-        <v>25.20707113226853</v>
+        <v>35.45302074431861</v>
       </c>
       <c r="AV5" t="n">
-        <v>13.16399119089713</v>
+        <v>13.28944848003967</v>
       </c>
       <c r="AW5" t="n">
-        <v>2.989483041905145</v>
+        <v>28.29527989860879</v>
       </c>
       <c r="AX5" t="n">
-        <v>15.59701314544925</v>
+        <v>22.17313824217758</v>
       </c>
     </row>
     <row r="6">
@@ -1301,148 +1301,148 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>3.603470694562486</v>
+        <v>3.365173949175976</v>
       </c>
       <c r="D6" t="n">
-        <v>1.786310315075212</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>8.984079525722024</v>
       </c>
       <c r="G6" t="n">
-        <v>56.98251564735652</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>11.32895139492638</v>
+        <v>1.242945761940838</v>
       </c>
       <c r="I6" t="n">
-        <v>2.472786163952374</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3.766867423527492</v>
+        <v>12.8638797877011</v>
       </c>
       <c r="K6" t="n">
-        <v>14.17512251409811</v>
+        <v>14.21394707193383</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>22.08915065557186</v>
       </c>
       <c r="M6" t="n">
-        <v>66.938636302825</v>
+        <v>36.43901951603303</v>
       </c>
       <c r="N6" t="n">
-        <v>41.74951003905728</v>
+        <v>15.25294754847814</v>
       </c>
       <c r="O6" t="n">
-        <v>7.544683419986239</v>
+        <v>14.24670875442906</v>
       </c>
       <c r="P6" t="n">
-        <v>85.35519572968053</v>
+        <v>8.003284951704787</v>
       </c>
       <c r="Q6" t="n">
-        <v>19.62983213601681</v>
+        <v>40.5224131490234</v>
       </c>
       <c r="R6" t="n">
-        <v>72.81411291485361</v>
+        <v>10.12997085046182</v>
       </c>
       <c r="S6" t="n">
-        <v>20.88079821773248</v>
+        <v>16.01483776573388</v>
       </c>
       <c r="T6" t="n">
-        <v>17.68722264846652</v>
+        <v>21.53321130830227</v>
       </c>
       <c r="U6" t="n">
-        <v>17.53908164635244</v>
+        <v>21.58809498523386</v>
       </c>
       <c r="V6" t="n">
-        <v>4.505685534033312</v>
+        <v>8.715824332174417</v>
       </c>
       <c r="W6" t="n">
-        <v>33.40633046003717</v>
+        <v>19.47917629049934</v>
       </c>
       <c r="X6" t="n">
-        <v>25.41904645623766</v>
+        <v>15.88473445094737</v>
       </c>
       <c r="Y6" t="n">
-        <v>29.277714373379</v>
+        <v>25.60298632086912</v>
       </c>
       <c r="Z6" t="n">
-        <v>9.524054654506642</v>
+        <v>32.87611864421397</v>
       </c>
       <c r="AA6" t="n">
-        <v>17.30812188351699</v>
+        <v>8.345516138087788</v>
       </c>
       <c r="AB6" t="n">
-        <v>16.37116277282263</v>
+        <v>14.76142907736624</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.33772403239199</v>
+        <v>29.27568927757674</v>
       </c>
       <c r="AD6" t="n">
-        <v>14.39159206373959</v>
+        <v>20.54564228187381</v>
       </c>
       <c r="AE6" t="n">
-        <v>13.65778876699836</v>
+        <v>7.479455540443343</v>
       </c>
       <c r="AF6" t="n">
-        <v>13.89367559362913</v>
+        <v>17.96202504575396</v>
       </c>
       <c r="AG6" t="n">
-        <v>17.00154647127909</v>
+        <v>12.32648448956614</v>
       </c>
       <c r="AH6" t="n">
-        <v>7.453860038372881</v>
+        <v>10.30383081005148</v>
       </c>
       <c r="AI6" t="n">
-        <v>11.45351971792916</v>
+        <v>6.927604720237827</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10.77195280928657</v>
+        <v>7.348142326592471</v>
       </c>
       <c r="AK6" t="n">
-        <v>4.124072931071789</v>
+        <v>5.462312882278903</v>
       </c>
       <c r="AL6" t="n">
-        <v>12.11278290541702</v>
+        <v>4.955115416593424</v>
       </c>
       <c r="AM6" t="n">
-        <v>8.041761659205076</v>
+        <v>5.573422331738073</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.128700423160385</v>
+        <v>2.25170267364674</v>
       </c>
       <c r="AO6" t="n">
-        <v>4.124962239524592</v>
+        <v>4.136458175536359</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.581452824417751</v>
+        <v>2.395499647696698</v>
       </c>
       <c r="AQ6" t="n">
-        <v>5.22328324710519</v>
+        <v>2.584912454630904</v>
       </c>
       <c r="AR6" t="n">
-        <v>1.869634339206977</v>
+        <v>2.509047541291388</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.34569940749898</v>
+        <v>3.887764380558076</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>1.835483438086173</v>
       </c>
       <c r="AU6" t="n">
-        <v>3.485099752921031</v>
+        <v>2.877614645937914</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.5684426740955049</v>
+        <v>3.953907194119344</v>
       </c>
       <c r="AW6" t="n">
-        <v>2.412054049583591</v>
+        <v>0.4707373616621781</v>
       </c>
       <c r="AX6" t="n">
-        <v>1.51826032613456</v>
+        <v>3.3100308338301</v>
       </c>
     </row>
     <row r="7">
@@ -1453,148 +1453,148 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>3.282386239357253</v>
+        <v>12.90386460123714</v>
       </c>
       <c r="D7" t="n">
-        <v>7.656802239760836</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>17.08397310183544</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.16609936714359</v>
+        <v>7.056656010465698</v>
       </c>
       <c r="G7" t="n">
-        <v>11.99960115926282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>18.79028523375891</v>
+        <v>1.062540555689855</v>
       </c>
       <c r="I7" t="n">
-        <v>31.36846832954975</v>
+        <v>8.179700358172951</v>
       </c>
       <c r="J7" t="n">
-        <v>26.22227197016294</v>
+        <v>73.84246391102234</v>
       </c>
       <c r="K7" t="n">
-        <v>40.4871570941658</v>
+        <v>47.44252888205211</v>
       </c>
       <c r="L7" t="n">
-        <v>49.30007407642428</v>
+        <v>123.9026531497422</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>15.14744618646465</v>
       </c>
       <c r="N7" t="n">
-        <v>102.0905811330621</v>
+        <v>46.7144070495814</v>
       </c>
       <c r="O7" t="n">
-        <v>13.36544433537773</v>
+        <v>81.59265539831772</v>
       </c>
       <c r="P7" t="n">
-        <v>26.73947430918389</v>
+        <v>9.188622639268893</v>
       </c>
       <c r="Q7" t="n">
-        <v>39.20534954316553</v>
+        <v>65.36223833814346</v>
       </c>
       <c r="R7" t="n">
-        <v>52.99206657040318</v>
+        <v>59.03261647703167</v>
       </c>
       <c r="S7" t="n">
-        <v>10.82297342673785</v>
+        <v>7.162136693561578</v>
       </c>
       <c r="T7" t="n">
-        <v>29.62964376622839</v>
+        <v>62.61363883467928</v>
       </c>
       <c r="U7" t="n">
-        <v>33.58564997224104</v>
+        <v>44.88703011963265</v>
       </c>
       <c r="V7" t="n">
-        <v>22.98482081192784</v>
+        <v>41.04758085103533</v>
       </c>
       <c r="W7" t="n">
-        <v>0.6903514180489961</v>
+        <v>2.343670990080255</v>
       </c>
       <c r="X7" t="n">
-        <v>9.792633203311059</v>
+        <v>15.58035536444784</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1.351155724533023</v>
       </c>
       <c r="Z7" t="n">
-        <v>33.33796575414986</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.327835315955842</v>
+        <v>19.54549535394951</v>
       </c>
       <c r="AB7" t="n">
-        <v>64.78802148973215</v>
+        <v>4.388748894531416</v>
       </c>
       <c r="AC7" t="n">
-        <v>14.5526448482136</v>
+        <v>13.65589152014488</v>
       </c>
       <c r="AD7" t="n">
-        <v>9.376415014362394</v>
+        <v>1.870137439454111</v>
       </c>
       <c r="AE7" t="n">
-        <v>9.112024378039424</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.298047540791915</v>
+        <v>5.90127931707908</v>
       </c>
       <c r="AG7" t="n">
-        <v>16.66986917873932</v>
+        <v>7.993078263969496</v>
       </c>
       <c r="AH7" t="n">
-        <v>4.133635535761038</v>
+        <v>15.01807674060883</v>
       </c>
       <c r="AI7" t="n">
-        <v>7.815788567581489</v>
+        <v>0.1422472341870465</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.5607315830904858</v>
+        <v>3.50904912987906</v>
       </c>
       <c r="AK7" t="n">
-        <v>23.54963155169181</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>10.761054361075</v>
+        <v>17.22895792156568</v>
       </c>
       <c r="AM7" t="n">
-        <v>24.22677455082713</v>
+        <v>4.734465327924212</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>5.64589825627495</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>12.03504273590217</v>
       </c>
       <c r="AP7" t="n">
-        <v>5.646480268072644</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>13.59142355601086</v>
+        <v>3.09884274089763</v>
       </c>
       <c r="AR7" t="n">
-        <v>9.163316778671099</v>
+        <v>13.40407406178657</v>
       </c>
       <c r="AS7" t="n">
-        <v>13.90400438335704</v>
+        <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.533851994300563</v>
+        <v>14.17955748411647</v>
       </c>
       <c r="AU7" t="n">
-        <v>13.13184023560899</v>
+        <v>3.595352831400294</v>
       </c>
       <c r="AV7" t="n">
         <v>0</v>
       </c>
       <c r="AW7" t="n">
-        <v>1.76917684064457</v>
+        <v>12.95325657120836</v>
       </c>
       <c r="AX7" t="n">
-        <v>13.41255538349215</v>
+        <v>11.85445839424775</v>
       </c>
     </row>
     <row r="8">
@@ -1605,148 +1605,148 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>21.21923414297648</v>
+        <v>16.55743706034146</v>
       </c>
       <c r="D8" t="n">
-        <v>20.67411398070072</v>
+        <v>22.307011689207</v>
       </c>
       <c r="E8" t="n">
-        <v>24.44318442063966</v>
+        <v>18.05965358709116</v>
       </c>
       <c r="F8" t="n">
-        <v>76.62242879022139</v>
+        <v>28.07122712960657</v>
       </c>
       <c r="G8" t="n">
-        <v>10.77313071877314</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>31.08340056883473</v>
+        <v>96.00644737874802</v>
       </c>
       <c r="I8" t="n">
-        <v>173.1380564393833</v>
+        <v>86.33636516064311</v>
       </c>
       <c r="J8" t="n">
-        <v>26.90074462283856</v>
+        <v>9.969991881918471</v>
       </c>
       <c r="K8" t="n">
-        <v>43.19846887871073</v>
+        <v>23.58464782189336</v>
       </c>
       <c r="L8" t="n">
-        <v>51.63196860257117</v>
+        <v>165.7542105126531</v>
       </c>
       <c r="M8" t="n">
-        <v>77.57589375944214</v>
+        <v>91.65534585748304</v>
       </c>
       <c r="N8" t="n">
-        <v>224.5012375427012</v>
+        <v>96.72577727938803</v>
       </c>
       <c r="O8" t="n">
-        <v>69.81379564918912</v>
+        <v>199.3820987297086</v>
       </c>
       <c r="P8" t="n">
-        <v>44.16840747597124</v>
+        <v>53.83090348508009</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.350221765072972</v>
+        <v>14.72550273362283</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7866617683834</v>
+        <v>54.80329468184975</v>
       </c>
       <c r="S8" t="n">
-        <v>28.97983953580551</v>
+        <v>36.92681015851961</v>
       </c>
       <c r="T8" t="n">
-        <v>80.82755950355771</v>
+        <v>32.37340240042352</v>
       </c>
       <c r="U8" t="n">
-        <v>37.01168140905167</v>
+        <v>50.27933322173078</v>
       </c>
       <c r="V8" t="n">
-        <v>50.10476643179829</v>
+        <v>103.1255352443704</v>
       </c>
       <c r="W8" t="n">
-        <v>94.35953786893863</v>
+        <v>80.88777045285323</v>
       </c>
       <c r="X8" t="n">
-        <v>53.27250190239563</v>
+        <v>52.29471843072352</v>
       </c>
       <c r="Y8" t="n">
-        <v>97.51374238467783</v>
+        <v>69.58229607352773</v>
       </c>
       <c r="Z8" t="n">
-        <v>29.14368142642329</v>
+        <v>111.2129822431085</v>
       </c>
       <c r="AA8" t="n">
-        <v>46.20392805535971</v>
+        <v>40.73540342406004</v>
       </c>
       <c r="AB8" t="n">
-        <v>129.3817361769262</v>
+        <v>118.8541507202731</v>
       </c>
       <c r="AC8" t="n">
-        <v>169.2397750774483</v>
+        <v>157.3004767912634</v>
       </c>
       <c r="AD8" t="n">
-        <v>82.92026924626055</v>
+        <v>89.94362343664464</v>
       </c>
       <c r="AE8" t="n">
-        <v>128.4850530350519</v>
+        <v>60.06449917450352</v>
       </c>
       <c r="AF8" t="n">
-        <v>89.55482273350475</v>
+        <v>139.4523410831647</v>
       </c>
       <c r="AG8" t="n">
-        <v>5.401803305426498</v>
+        <v>82.72124793891223</v>
       </c>
       <c r="AH8" t="n">
-        <v>60.18198953768584</v>
+        <v>219.673619330612</v>
       </c>
       <c r="AI8" t="n">
-        <v>107.5020602433659</v>
+        <v>83.922486330989</v>
       </c>
       <c r="AJ8" t="n">
-        <v>102.7583922466651</v>
+        <v>44.6750799506225</v>
       </c>
       <c r="AK8" t="n">
-        <v>116.9666502957369</v>
+        <v>30.26273743545698</v>
       </c>
       <c r="AL8" t="n">
-        <v>146.154228451977</v>
+        <v>48.33044390924584</v>
       </c>
       <c r="AM8" t="n">
-        <v>44.79696287399243</v>
+        <v>81.26047797377896</v>
       </c>
       <c r="AN8" t="n">
-        <v>25.90720833307603</v>
+        <v>38.17959619568219</v>
       </c>
       <c r="AO8" t="n">
-        <v>38.2937728413748</v>
+        <v>28.87108435934918</v>
       </c>
       <c r="AP8" t="n">
-        <v>30.35732441740534</v>
+        <v>9.732690960981815</v>
       </c>
       <c r="AQ8" t="n">
-        <v>17.08224138857083</v>
+        <v>14.04390143441948</v>
       </c>
       <c r="AR8" t="n">
-        <v>28.63369256015631</v>
+        <v>22.73567460711664</v>
       </c>
       <c r="AS8" t="n">
-        <v>18.09150636207171</v>
+        <v>12.04194685523754</v>
       </c>
       <c r="AT8" t="n">
-        <v>10.37594885371876</v>
+        <v>13.04460822036684</v>
       </c>
       <c r="AU8" t="n">
-        <v>14.72778091377503</v>
+        <v>21.309042325546</v>
       </c>
       <c r="AV8" t="n">
-        <v>22.24138304715471</v>
+        <v>24.51768338101887</v>
       </c>
       <c r="AW8" t="n">
-        <v>22.46007364160741</v>
+        <v>18.28201670970388</v>
       </c>
       <c r="AX8" t="n">
-        <v>28.24780807616645</v>
+        <v>19.56901327455264</v>
       </c>
     </row>
     <row r="9">
@@ -1757,148 +1757,148 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>1.382656919311966</v>
+        <v>4.695355702876626</v>
       </c>
       <c r="D9" t="n">
-        <v>5.112645597258789</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>3.565973925450256</v>
+        <v>5.314617476417133</v>
       </c>
       <c r="F9" t="n">
-        <v>3.464144770038306</v>
+        <v>0.5743596626309225</v>
       </c>
       <c r="G9" t="n">
-        <v>1.563617314936822</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>5.854291970867085</v>
+        <v>2.607423989151804</v>
       </c>
       <c r="I9" t="n">
-        <v>4.58623864246555</v>
+        <v>3.211372055998949</v>
       </c>
       <c r="J9" t="n">
-        <v>4.164133999044997</v>
+        <v>4.378727313364293</v>
       </c>
       <c r="K9" t="n">
-        <v>4.631005807953119</v>
+        <v>1.4480306308909</v>
       </c>
       <c r="L9" t="n">
-        <v>1.081635705410355</v>
+        <v>3.785612778797497</v>
       </c>
       <c r="M9" t="n">
-        <v>3.2208337819494</v>
+        <v>20.58847417190734</v>
       </c>
       <c r="N9" t="n">
-        <v>2.759577477319888</v>
+        <v>4.227097469938539</v>
       </c>
       <c r="O9" t="n">
-        <v>2.474855761996837</v>
+        <v>4.2949059716983</v>
       </c>
       <c r="P9" t="n">
-        <v>3.367083000031598</v>
+        <v>2.670040685671208</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.170540350729945</v>
+        <v>8.425883235556903</v>
       </c>
       <c r="R9" t="n">
-        <v>5.784220193897589</v>
+        <v>2.138533097003311</v>
       </c>
       <c r="S9" t="n">
-        <v>4.751126349194163</v>
+        <v>4.052964466541155</v>
       </c>
       <c r="T9" t="n">
-        <v>4.748659301418962</v>
+        <v>3.392523770079025</v>
       </c>
       <c r="U9" t="n">
-        <v>3.765276422362068</v>
+        <v>3.185556534877342</v>
       </c>
       <c r="V9" t="n">
-        <v>4.802693120827556</v>
+        <v>2.686618361786532</v>
       </c>
       <c r="W9" t="n">
-        <v>5.751568467513606</v>
+        <v>1.882949430204402</v>
       </c>
       <c r="X9" t="n">
-        <v>5.944091841085969</v>
+        <v>3.488807010478985</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.88943656637301</v>
+        <v>3.309251753432813</v>
       </c>
       <c r="Z9" t="n">
-        <v>5.594701254463943</v>
+        <v>7.537171159496835</v>
       </c>
       <c r="AA9" t="n">
-        <v>4.902685933443005</v>
+        <v>4.063529000113194</v>
       </c>
       <c r="AB9" t="n">
-        <v>6.424815052263323</v>
+        <v>7.61192934967681</v>
       </c>
       <c r="AC9" t="n">
-        <v>4.398162330830643</v>
+        <v>2.447340503482936</v>
       </c>
       <c r="AD9" t="n">
-        <v>16.95415993105967</v>
+        <v>6.712186300011136</v>
       </c>
       <c r="AE9" t="n">
-        <v>10.49450861033817</v>
+        <v>5.989487159643495</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.405890558944586</v>
+        <v>7.121055934031714</v>
       </c>
       <c r="AG9" t="n">
-        <v>5.634963977784836</v>
+        <v>3.12876789934496</v>
       </c>
       <c r="AH9" t="n">
-        <v>4.470820402310733</v>
+        <v>7.554747490366923</v>
       </c>
       <c r="AI9" t="n">
-        <v>4.135755576107655</v>
+        <v>12.70317277349046</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13.15819966605703</v>
+        <v>5.156015114131756</v>
       </c>
       <c r="AK9" t="n">
-        <v>4.546079905438818</v>
+        <v>7.261157791293833</v>
       </c>
       <c r="AL9" t="n">
-        <v>4.506615239292842</v>
+        <v>5.255974805455542</v>
       </c>
       <c r="AM9" t="n">
-        <v>1.905306470713025</v>
+        <v>5.975033599174266</v>
       </c>
       <c r="AN9" t="n">
-        <v>6.257329478778223</v>
+        <v>4.29783642203025</v>
       </c>
       <c r="AO9" t="n">
-        <v>4.68703994788974</v>
+        <v>2.108723987697577</v>
       </c>
       <c r="AP9" t="n">
-        <v>4.774631234668744</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>4.975551282216339</v>
+        <v>2.278682527334803</v>
       </c>
       <c r="AR9" t="n">
-        <v>2.295039626162747</v>
+        <v>2.862489116192751</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.443842046800697</v>
+        <v>3.172436430535969</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.9231213464932595</v>
+        <v>3.958903322385232</v>
       </c>
       <c r="AU9" t="n">
-        <v>3.424835414268935</v>
+        <v>3.48855061124341</v>
       </c>
       <c r="AV9" t="n">
-        <v>3.438108238958972</v>
+        <v>2.287460709130011</v>
       </c>
       <c r="AW9" t="n">
-        <v>1.264041238767706</v>
+        <v>0.452608275680022</v>
       </c>
       <c r="AX9" t="n">
-        <v>4.384816630816989</v>
+        <v>3.924822986462063</v>
       </c>
     </row>
     <row r="10">
@@ -1909,148 +1909,148 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>5.991435161889368</v>
+        <v>13.48556381129099</v>
       </c>
       <c r="D10" t="n">
-        <v>20.45712400171332</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>10.16799694854934</v>
+        <v>10.48044481412873</v>
       </c>
       <c r="F10" t="n">
-        <v>12.47572200594379</v>
+        <v>14.05708826571821</v>
       </c>
       <c r="G10" t="n">
-        <v>7.886737257655371</v>
+        <v>8.174093781028706</v>
       </c>
       <c r="H10" t="n">
-        <v>1.335615201821487</v>
+        <v>62.17329610723597</v>
       </c>
       <c r="I10" t="n">
-        <v>53.99284674168476</v>
+        <v>98.87308247021787</v>
       </c>
       <c r="J10" t="n">
-        <v>1.179029352572638</v>
+        <v>19.61822232451103</v>
       </c>
       <c r="K10" t="n">
-        <v>69.42914417290353</v>
+        <v>31.1617166731553</v>
       </c>
       <c r="L10" t="n">
-        <v>66.51848281653417</v>
+        <v>37.82132244032173</v>
       </c>
       <c r="M10" t="n">
-        <v>38.36560293467568</v>
+        <v>25.76985088302911</v>
       </c>
       <c r="N10" t="n">
-        <v>75.36662940322391</v>
+        <v>140.6750826347154</v>
       </c>
       <c r="O10" t="n">
-        <v>53.27186862396556</v>
+        <v>98.70174187164251</v>
       </c>
       <c r="P10" t="n">
-        <v>83.58401412939357</v>
+        <v>156.6807285346524</v>
       </c>
       <c r="Q10" t="n">
-        <v>23.20893727740369</v>
+        <v>124.0540065954458</v>
       </c>
       <c r="R10" t="n">
-        <v>57.40189701134273</v>
+        <v>37.9885035773306</v>
       </c>
       <c r="S10" t="n">
-        <v>18.77231788289347</v>
+        <v>41.13233963140096</v>
       </c>
       <c r="T10" t="n">
-        <v>7.231720146220347</v>
+        <v>9.853988990977076</v>
       </c>
       <c r="U10" t="n">
-        <v>65.66795154902579</v>
+        <v>122.2751711449957</v>
       </c>
       <c r="V10" t="n">
-        <v>26.08086334375542</v>
+        <v>60.44563709944597</v>
       </c>
       <c r="W10" t="n">
-        <v>77.67334214323922</v>
+        <v>83.55709088411028</v>
       </c>
       <c r="X10" t="n">
-        <v>41.19661541586733</v>
+        <v>57.37917420362513</v>
       </c>
       <c r="Y10" t="n">
-        <v>18.40419642996041</v>
+        <v>99.76797060373826</v>
       </c>
       <c r="Z10" t="n">
-        <v>78.4014351385929</v>
+        <v>91.70240009608713</v>
       </c>
       <c r="AA10" t="n">
-        <v>73.29867430526416</v>
+        <v>78.85124051663185</v>
       </c>
       <c r="AB10" t="n">
-        <v>87.17019908019014</v>
+        <v>54.91792252825064</v>
       </c>
       <c r="AC10" t="n">
-        <v>84.40638007065434</v>
+        <v>108.1508621858615</v>
       </c>
       <c r="AD10" t="n">
-        <v>69.30612952262862</v>
+        <v>102.8626040364631</v>
       </c>
       <c r="AE10" t="n">
-        <v>104.1478685029036</v>
+        <v>104.8237503299698</v>
       </c>
       <c r="AF10" t="n">
-        <v>67.55264626395106</v>
+        <v>57.85654002121335</v>
       </c>
       <c r="AG10" t="n">
-        <v>58.58644594669379</v>
+        <v>110.1788812984882</v>
       </c>
       <c r="AH10" t="n">
-        <v>49.90474400864886</v>
+        <v>59.06549442381136</v>
       </c>
       <c r="AI10" t="n">
-        <v>74.35766353247124</v>
+        <v>55.50408298038548</v>
       </c>
       <c r="AJ10" t="n">
-        <v>69.3684652848757</v>
+        <v>103.4806420370548</v>
       </c>
       <c r="AK10" t="n">
-        <v>32.24328262522861</v>
+        <v>86.04142425536864</v>
       </c>
       <c r="AL10" t="n">
-        <v>20.04533653398264</v>
+        <v>24.64484955957088</v>
       </c>
       <c r="AM10" t="n">
-        <v>22.14549406676564</v>
+        <v>31.22192896336551</v>
       </c>
       <c r="AN10" t="n">
-        <v>37.15341803146313</v>
+        <v>23.53225134956499</v>
       </c>
       <c r="AO10" t="n">
-        <v>21.39556880456501</v>
+        <v>35.87003360247331</v>
       </c>
       <c r="AP10" t="n">
-        <v>14.5203266546596</v>
+        <v>18.79845505499211</v>
       </c>
       <c r="AQ10" t="n">
-        <v>15.15102386810138</v>
+        <v>8.805912513135929</v>
       </c>
       <c r="AR10" t="n">
-        <v>17.13489228661515</v>
+        <v>14.53877059091407</v>
       </c>
       <c r="AS10" t="n">
-        <v>17.36336869946453</v>
+        <v>8.199175035598572</v>
       </c>
       <c r="AT10" t="n">
-        <v>11.0577776263249</v>
+        <v>7.972416311744041</v>
       </c>
       <c r="AU10" t="n">
-        <v>11.40014972493576</v>
+        <v>19.0392640033466</v>
       </c>
       <c r="AV10" t="n">
-        <v>8.024793651900668</v>
+        <v>36.45647051571346</v>
       </c>
       <c r="AW10" t="n">
-        <v>10.16740289518162</v>
+        <v>7.117358294689343</v>
       </c>
       <c r="AX10" t="n">
-        <v>10.87974650006114</v>
+        <v>10.08977639812007</v>
       </c>
     </row>
     <row r="11">
@@ -2061,148 +2061,148 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>12.70423652377693</v>
+        <v>20.09686124083046</v>
       </c>
       <c r="D11" t="n">
-        <v>16.4552131428055</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>26.33031000548187</v>
+        <v>23.10845459321806</v>
       </c>
       <c r="F11" t="n">
-        <v>9.026885896343687</v>
+        <v>58.01678144423583</v>
       </c>
       <c r="G11" t="n">
-        <v>31.11939309558593</v>
+        <v>58.79341050583853</v>
       </c>
       <c r="H11" t="n">
-        <v>10.16570450754705</v>
+        <v>23.58615167994539</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3098590439241873</v>
+        <v>2.082295417408039</v>
       </c>
       <c r="J11" t="n">
-        <v>50.56309379235216</v>
+        <v>18.39374486221288</v>
       </c>
       <c r="K11" t="n">
-        <v>32.14386439129206</v>
+        <v>54.03310576828341</v>
       </c>
       <c r="L11" t="n">
-        <v>154.2196431408117</v>
+        <v>80.42401050938483</v>
       </c>
       <c r="M11" t="n">
-        <v>34.5243762483244</v>
+        <v>0.6766585676576966</v>
       </c>
       <c r="N11" t="n">
-        <v>51.09656708660202</v>
+        <v>45.8416127652272</v>
       </c>
       <c r="O11" t="n">
-        <v>104.5043008353337</v>
+        <v>16.23506728094835</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>21.88754257722853</v>
       </c>
       <c r="Q11" t="n">
-        <v>11.702669478019</v>
+        <v>139.6207948239755</v>
       </c>
       <c r="R11" t="n">
-        <v>136.9851127795997</v>
+        <v>12.785786738635</v>
       </c>
       <c r="S11" t="n">
-        <v>19.25947195443564</v>
+        <v>50.55780366831655</v>
       </c>
       <c r="T11" t="n">
-        <v>35.11835519763851</v>
+        <v>37.07118435778503</v>
       </c>
       <c r="U11" t="n">
-        <v>59.28761435308233</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>39.39285932652773</v>
+        <v>65.62075438898862</v>
       </c>
       <c r="W11" t="n">
-        <v>16.84295374328428</v>
+        <v>89.09583644202526</v>
       </c>
       <c r="X11" t="n">
-        <v>50.34289703437233</v>
+        <v>40.06183195826156</v>
       </c>
       <c r="Y11" t="n">
-        <v>77.26936789459531</v>
+        <v>20.85612714425708</v>
       </c>
       <c r="Z11" t="n">
-        <v>53.98036087197836</v>
+        <v>59.07258127274035</v>
       </c>
       <c r="AA11" t="n">
-        <v>121.8259961086226</v>
+        <v>83.6983488804221</v>
       </c>
       <c r="AB11" t="n">
-        <v>40.67043278563011</v>
+        <v>142.122857174551</v>
       </c>
       <c r="AC11" t="n">
-        <v>54.65164659567981</v>
+        <v>7.071276258061668</v>
       </c>
       <c r="AD11" t="n">
-        <v>24.61848829792854</v>
+        <v>35.05309571607386</v>
       </c>
       <c r="AE11" t="n">
-        <v>23.79389960094417</v>
+        <v>29.77818570563895</v>
       </c>
       <c r="AF11" t="n">
-        <v>48.21570939333501</v>
+        <v>113.2273052233998</v>
       </c>
       <c r="AG11" t="n">
-        <v>82.88571219537917</v>
+        <v>38.67503644899157</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>35.33805403964297</v>
       </c>
       <c r="AI11" t="n">
-        <v>21.56417579835109</v>
+        <v>30.46812491074776</v>
       </c>
       <c r="AJ11" t="n">
-        <v>35.25659822201276</v>
+        <v>36.82698528823968</v>
       </c>
       <c r="AK11" t="n">
-        <v>66.43570652513584</v>
+        <v>18.8774366887089</v>
       </c>
       <c r="AL11" t="n">
-        <v>18.79347395872868</v>
+        <v>22.90331620296968</v>
       </c>
       <c r="AM11" t="n">
-        <v>8.279557283758477</v>
+        <v>9.670312812413773</v>
       </c>
       <c r="AN11" t="n">
-        <v>26.792458691128</v>
+        <v>23.81949888101679</v>
       </c>
       <c r="AO11" t="n">
-        <v>12.10962160298107</v>
+        <v>16.31425725929005</v>
       </c>
       <c r="AP11" t="n">
-        <v>28.44291961704513</v>
+        <v>9.793846997343438</v>
       </c>
       <c r="AQ11" t="n">
-        <v>8.601232915679532</v>
+        <v>17.75676985521771</v>
       </c>
       <c r="AR11" t="n">
-        <v>26.19059092145581</v>
+        <v>29.16413485606486</v>
       </c>
       <c r="AS11" t="n">
-        <v>13.49293086486605</v>
+        <v>0.316660615015062</v>
       </c>
       <c r="AT11" t="n">
-        <v>26.06039093572196</v>
+        <v>42.73484979462837</v>
       </c>
       <c r="AU11" t="n">
-        <v>18.46712244308397</v>
+        <v>24.70241383593879</v>
       </c>
       <c r="AV11" t="n">
-        <v>16.67696912324912</v>
+        <v>15.42474008286918</v>
       </c>
       <c r="AW11" t="n">
-        <v>28.6526689989918</v>
+        <v>21.3829844647167</v>
       </c>
       <c r="AX11" t="n">
-        <v>28.26891254713839</v>
+        <v>37.27045486951356</v>
       </c>
     </row>
     <row r="12">
@@ -2213,148 +2213,148 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>8.949322543084087</v>
+        <v>2.456021879870978</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9116401976494418</v>
+        <v>8.148747037422488</v>
       </c>
       <c r="E12" t="n">
-        <v>15.61102824806524</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>3.313315019866566</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>4.607464693414709</v>
+        <v>0.4987303642454961</v>
       </c>
       <c r="H12" t="n">
-        <v>4.567758945533503</v>
+        <v>10.43601203560944</v>
       </c>
       <c r="I12" t="n">
-        <v>11.81079984800905</v>
+        <v>10.00261565233524</v>
       </c>
       <c r="J12" t="n">
-        <v>7.475757365306755</v>
+        <v>60.444904169432</v>
       </c>
       <c r="K12" t="n">
-        <v>29.3641810314532</v>
+        <v>26.89746606429219</v>
       </c>
       <c r="L12" t="n">
-        <v>9.124587022547853</v>
+        <v>7.639524407956433</v>
       </c>
       <c r="M12" t="n">
-        <v>5.674951229178905</v>
+        <v>113.2369165769615</v>
       </c>
       <c r="N12" t="n">
-        <v>26.34622855386791</v>
+        <v>24.40598365046155</v>
       </c>
       <c r="O12" t="n">
-        <v>33.86906904638373</v>
+        <v>27.70977111046173</v>
       </c>
       <c r="P12" t="n">
-        <v>80.53515434945741</v>
+        <v>20.87295101141605</v>
       </c>
       <c r="Q12" t="n">
-        <v>26.8806563989224</v>
+        <v>3.470335269383932</v>
       </c>
       <c r="R12" t="n">
-        <v>11.71238428577913</v>
+        <v>41.64169041592127</v>
       </c>
       <c r="S12" t="n">
-        <v>15.3876023258698</v>
+        <v>28.13584699555052</v>
       </c>
       <c r="T12" t="n">
-        <v>16.57732126647585</v>
+        <v>19.74048046919964</v>
       </c>
       <c r="U12" t="n">
-        <v>31.05667075096293</v>
+        <v>43.22391298645713</v>
       </c>
       <c r="V12" t="n">
-        <v>20.93352634020553</v>
+        <v>22.94653213606363</v>
       </c>
       <c r="W12" t="n">
-        <v>21.64704391727095</v>
+        <v>12.72822490081211</v>
       </c>
       <c r="X12" t="n">
-        <v>28.18572406392328</v>
+        <v>9.290694673388414</v>
       </c>
       <c r="Y12" t="n">
-        <v>15.69441992282738</v>
+        <v>24.26251137023003</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.41286821978815</v>
+        <v>3.2332816907878</v>
       </c>
       <c r="AA12" t="n">
-        <v>36.08082791183963</v>
+        <v>14.35645926551947</v>
       </c>
       <c r="AB12" t="n">
-        <v>25.35815810630499</v>
+        <v>11.62135349874817</v>
       </c>
       <c r="AC12" t="n">
-        <v>25.26092027707914</v>
+        <v>25.34415642096576</v>
       </c>
       <c r="AD12" t="n">
-        <v>4.188448402965671</v>
+        <v>49.5628787929956</v>
       </c>
       <c r="AE12" t="n">
-        <v>14.42912623346205</v>
+        <v>2.867645880728777</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.630556196298418</v>
+        <v>14.87691969411897</v>
       </c>
       <c r="AG12" t="n">
-        <v>8.943279835494685</v>
+        <v>8.842510518200568</v>
       </c>
       <c r="AH12" t="n">
-        <v>7.563570117363658</v>
+        <v>8.471760342715649</v>
       </c>
       <c r="AI12" t="n">
-        <v>10.36406143901498</v>
+        <v>10.86560800008855</v>
       </c>
       <c r="AJ12" t="n">
-        <v>5.55392672368028</v>
+        <v>20.63078801085299</v>
       </c>
       <c r="AK12" t="n">
-        <v>1.604158661270907</v>
+        <v>8.567933694637576</v>
       </c>
       <c r="AL12" t="n">
-        <v>2.478167054881299</v>
+        <v>9.130467305788176</v>
       </c>
       <c r="AM12" t="n">
-        <v>2.960430624315551</v>
+        <v>5.494011617807541</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.091678464604626</v>
+        <v>0.589609089037941</v>
       </c>
       <c r="AO12" t="n">
-        <v>4.042614300182835</v>
+        <v>3.603957696144462</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.739029251381325</v>
+        <v>2.232026578561685</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.7484220983419267</v>
+        <v>8.802655060308226</v>
       </c>
       <c r="AR12" t="n">
-        <v>2.686156857651925</v>
+        <v>3.41450244279495</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.16383796189238</v>
+        <v>1.32327820137094</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.915793180943375</v>
+        <v>4.005363359423656</v>
       </c>
       <c r="AU12" t="n">
-        <v>2.027612230317204</v>
+        <v>2.57372175054996</v>
       </c>
       <c r="AV12" t="n">
-        <v>0</v>
+        <v>0.5178119938641649</v>
       </c>
       <c r="AW12" t="n">
-        <v>10.60108694616001</v>
+        <v>4.966603670540863</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.6546905476247953</v>
+        <v>4.169642310757844</v>
       </c>
     </row>
     <row r="13">
@@ -2365,148 +2365,148 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.263956887786189</v>
+        <v>71.93058068117486</v>
       </c>
       <c r="D13" t="n">
-        <v>4.733918466618939</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>15.66426670512147</v>
+        <v>19.00244408951639</v>
       </c>
       <c r="F13" t="n">
-        <v>3.933550389108352</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>33.71799414770872</v>
+        <v>7.180231658189827</v>
       </c>
       <c r="I13" t="n">
-        <v>16.23574094100878</v>
+        <v>2.991649685313538</v>
       </c>
       <c r="J13" t="n">
-        <v>23.39350841487759</v>
+        <v>6.875023125648477</v>
       </c>
       <c r="K13" t="n">
-        <v>52.13531298284745</v>
+        <v>20.38104509354622</v>
       </c>
       <c r="L13" t="n">
-        <v>37.9811309404302</v>
+        <v>62.89931765393476</v>
       </c>
       <c r="M13" t="n">
-        <v>68.92539422945853</v>
+        <v>37.18543154486803</v>
       </c>
       <c r="N13" t="n">
-        <v>25.97097633329746</v>
+        <v>12.57130784516468</v>
       </c>
       <c r="O13" t="n">
-        <v>50.67899638097406</v>
+        <v>89.7700079080108</v>
       </c>
       <c r="P13" t="n">
-        <v>19.89988146937645</v>
+        <v>3.813954833184024</v>
       </c>
       <c r="Q13" t="n">
-        <v>9.254100434100913</v>
+        <v>41.06583752750578</v>
       </c>
       <c r="R13" t="n">
-        <v>18.80824289976008</v>
+        <v>6.504381159787712</v>
       </c>
       <c r="S13" t="n">
-        <v>10.8087708621025</v>
+        <v>22.6333054268852</v>
       </c>
       <c r="T13" t="n">
-        <v>9.445999888486057</v>
+        <v>9.712408726783288</v>
       </c>
       <c r="U13" t="n">
-        <v>33.29924586522534</v>
+        <v>32.7621649790111</v>
       </c>
       <c r="V13" t="n">
-        <v>11.29786509339382</v>
+        <v>23.4526695543787</v>
       </c>
       <c r="W13" t="n">
-        <v>15.31491938203273</v>
+        <v>50.42372420118171</v>
       </c>
       <c r="X13" t="n">
-        <v>8.729925603482609</v>
+        <v>18.43510567099525</v>
       </c>
       <c r="Y13" t="n">
-        <v>23.0930568845266</v>
+        <v>39.43071610425113</v>
       </c>
       <c r="Z13" t="n">
-        <v>42.9310951839679</v>
+        <v>36.93580187813517</v>
       </c>
       <c r="AA13" t="n">
-        <v>70.26810972718283</v>
+        <v>6.608245111802653</v>
       </c>
       <c r="AB13" t="n">
-        <v>33.16836664545966</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>19.91482476065109</v>
+        <v>21.26592878059248</v>
       </c>
       <c r="AD13" t="n">
-        <v>9.632027926395693</v>
+        <v>7.162640808398132</v>
       </c>
       <c r="AE13" t="n">
-        <v>20.12763534990095</v>
+        <v>17.27807663205656</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.429584145803526</v>
+        <v>6.158477081310989</v>
       </c>
       <c r="AG13" t="n">
-        <v>23.97982027886068</v>
+        <v>10.42348715253794</v>
       </c>
       <c r="AH13" t="n">
-        <v>11.82736350484188</v>
+        <v>25.70116868539074</v>
       </c>
       <c r="AI13" t="n">
-        <v>9.928870587225315</v>
+        <v>3.687847539873904</v>
       </c>
       <c r="AJ13" t="n">
-        <v>4.610918312147128</v>
+        <v>5.923360905563399</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>2.296410959283423</v>
       </c>
       <c r="AL13" t="n">
-        <v>6.268681717255368</v>
+        <v>15.29348475431839</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>12.60953333902589</v>
       </c>
       <c r="AN13" t="n">
-        <v>1.705906711113265</v>
+        <v>12.97454685612305</v>
       </c>
       <c r="AO13" t="n">
-        <v>11.62893309596779</v>
+        <v>21.25324625609647</v>
       </c>
       <c r="AP13" t="n">
-        <v>28.60543643590822</v>
+        <v>13.22927239776882</v>
       </c>
       <c r="AQ13" t="n">
-        <v>11.8438099995136</v>
+        <v>6.064973359004128</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>5.047927792478648</v>
       </c>
       <c r="AS13" t="n">
-        <v>5.589572489182742</v>
+        <v>4.90969135032041</v>
       </c>
       <c r="AT13" t="n">
-        <v>14.57329461025738</v>
+        <v>3.505031634153956</v>
       </c>
       <c r="AU13" t="n">
-        <v>1.250399306899098</v>
+        <v>18.83280150276634</v>
       </c>
       <c r="AV13" t="n">
-        <v>4.267436957791302</v>
+        <v>4.538320435088107</v>
       </c>
       <c r="AW13" t="n">
-        <v>2.68753592398624</v>
+        <v>2.818274888227762</v>
       </c>
       <c r="AX13" t="n">
-        <v>5.386702293898836</v>
+        <v>12.9592118272753</v>
       </c>
     </row>
     <row r="14">
@@ -2517,148 +2517,148 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>21.33207721472078</v>
+        <v>24.4066399892786</v>
       </c>
       <c r="D14" t="n">
-        <v>14.29224680222661</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>137.2459239047447</v>
+        <v>18.82876989918454</v>
       </c>
       <c r="F14" t="n">
-        <v>13.77133227353163</v>
+        <v>26.20515227104089</v>
       </c>
       <c r="G14" t="n">
-        <v>17.92684252546777</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>10.442540654073</v>
+        <v>8.97832189314558</v>
       </c>
       <c r="I14" t="n">
-        <v>52.03437123020538</v>
+        <v>52.11862239271188</v>
       </c>
       <c r="J14" t="n">
-        <v>42.18157637263913</v>
+        <v>16.74589521766439</v>
       </c>
       <c r="K14" t="n">
-        <v>188.7160759587758</v>
+        <v>66.73222077183735</v>
       </c>
       <c r="L14" t="n">
-        <v>63.92768866658118</v>
+        <v>69.62706510232107</v>
       </c>
       <c r="M14" t="n">
-        <v>68.81873096078407</v>
+        <v>174.1277114480178</v>
       </c>
       <c r="N14" t="n">
-        <v>30.14737981302017</v>
+        <v>29.19055011516863</v>
       </c>
       <c r="O14" t="n">
-        <v>107.017564681572</v>
+        <v>5.475265806151334</v>
       </c>
       <c r="P14" t="n">
-        <v>91.16406589404104</v>
+        <v>75.69576763340606</v>
       </c>
       <c r="Q14" t="n">
-        <v>56.47698429806722</v>
+        <v>62.66864384632438</v>
       </c>
       <c r="R14" t="n">
-        <v>39.84361360793782</v>
+        <v>94.97770201653249</v>
       </c>
       <c r="S14" t="n">
-        <v>125.1669460634543</v>
+        <v>69.95207875614655</v>
       </c>
       <c r="T14" t="n">
-        <v>34.95326806166272</v>
+        <v>38.95839796890392</v>
       </c>
       <c r="U14" t="n">
-        <v>60.48443239753541</v>
+        <v>124.5127761009663</v>
       </c>
       <c r="V14" t="n">
-        <v>67.68358581108599</v>
+        <v>82.12419450181027</v>
       </c>
       <c r="W14" t="n">
-        <v>34.68401823588628</v>
+        <v>25.59646116067294</v>
       </c>
       <c r="X14" t="n">
-        <v>91.16601065070552</v>
+        <v>62.97871975559745</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.56201871770719</v>
+        <v>56.07574238014023</v>
       </c>
       <c r="Z14" t="n">
-        <v>92.89108932310982</v>
+        <v>66.09867125480235</v>
       </c>
       <c r="AA14" t="n">
-        <v>107.9513301178277</v>
+        <v>58.31981467941151</v>
       </c>
       <c r="AB14" t="n">
-        <v>87.24144718782698</v>
+        <v>70.69991240239432</v>
       </c>
       <c r="AC14" t="n">
-        <v>61.4898401835101</v>
+        <v>158.852148421885</v>
       </c>
       <c r="AD14" t="n">
-        <v>121.4579459787658</v>
+        <v>93.42126678581394</v>
       </c>
       <c r="AE14" t="n">
-        <v>86.959452498567</v>
+        <v>122.9652040027055</v>
       </c>
       <c r="AF14" t="n">
-        <v>94.75454419672521</v>
+        <v>167.1244029975745</v>
       </c>
       <c r="AG14" t="n">
-        <v>125.9060921564926</v>
+        <v>153.0919817544556</v>
       </c>
       <c r="AH14" t="n">
-        <v>119.0383779477096</v>
+        <v>107.721921069186</v>
       </c>
       <c r="AI14" t="n">
-        <v>92.31067045746155</v>
+        <v>99.58324977822247</v>
       </c>
       <c r="AJ14" t="n">
-        <v>47.52805834572314</v>
+        <v>54.18140278958592</v>
       </c>
       <c r="AK14" t="n">
-        <v>99.74076656884031</v>
+        <v>56.51951701892879</v>
       </c>
       <c r="AL14" t="n">
-        <v>64.57069952973596</v>
+        <v>45.44389870446055</v>
       </c>
       <c r="AM14" t="n">
-        <v>33.70091614037609</v>
+        <v>29.33425577407761</v>
       </c>
       <c r="AN14" t="n">
-        <v>21.10741830440875</v>
+        <v>12.55416775411689</v>
       </c>
       <c r="AO14" t="n">
-        <v>17.07189956030697</v>
+        <v>47.01016427887424</v>
       </c>
       <c r="AP14" t="n">
-        <v>35.29572192168504</v>
+        <v>19.66782010080057</v>
       </c>
       <c r="AQ14" t="n">
-        <v>37.2907702851732</v>
+        <v>20.56230811287842</v>
       </c>
       <c r="AR14" t="n">
-        <v>18.66047029234426</v>
+        <v>21.60276552754915</v>
       </c>
       <c r="AS14" t="n">
-        <v>17.0241765409797</v>
+        <v>14.36920694694153</v>
       </c>
       <c r="AT14" t="n">
-        <v>17.39101453878331</v>
+        <v>17.7958229262229</v>
       </c>
       <c r="AU14" t="n">
-        <v>17.56397729379349</v>
+        <v>17.73316354730091</v>
       </c>
       <c r="AV14" t="n">
-        <v>7.241897378383606</v>
+        <v>13.07201793830523</v>
       </c>
       <c r="AW14" t="n">
-        <v>28.44603433007594</v>
+        <v>7.846153842305275</v>
       </c>
       <c r="AX14" t="n">
-        <v>15.84377364306373</v>
+        <v>19.84606753976774</v>
       </c>
     </row>
     <row r="15">
@@ -2669,148 +2669,148 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>0.92055590108649</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1.919614250745848</v>
+        <v>2.78670181730376</v>
       </c>
       <c r="E15" t="n">
-        <v>3.727848827827085</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>2.575714881163258</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9353958906281039</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.8685613370215068</v>
+        <v>0.9579258671012196</v>
       </c>
       <c r="I15" t="n">
-        <v>2.632171348484888</v>
+        <v>3.86679096127852</v>
       </c>
       <c r="J15" t="n">
-        <v>3.038100286934462</v>
+        <v>2.85714555006076</v>
       </c>
       <c r="K15" t="n">
-        <v>3.468311785482295</v>
+        <v>6.243507756414393</v>
       </c>
       <c r="L15" t="n">
-        <v>6.260256062364369</v>
+        <v>5.058247429902172</v>
       </c>
       <c r="M15" t="n">
-        <v>3.793990749218764</v>
+        <v>2.651211282482772</v>
       </c>
       <c r="N15" t="n">
-        <v>4.695208127272319</v>
+        <v>1.313792393630805</v>
       </c>
       <c r="O15" t="n">
-        <v>9.978185585507203</v>
+        <v>4.275345910354797</v>
       </c>
       <c r="P15" t="n">
-        <v>3.992760393228671</v>
+        <v>6.14481275867522</v>
       </c>
       <c r="Q15" t="n">
-        <v>5.021411374332464</v>
+        <v>3.778636281560379</v>
       </c>
       <c r="R15" t="n">
-        <v>2.160956748719185</v>
+        <v>21.26502672141083</v>
       </c>
       <c r="S15" t="n">
-        <v>8.523235328166715</v>
+        <v>1.64579802221027</v>
       </c>
       <c r="T15" t="n">
-        <v>3.308376069737071</v>
+        <v>6.045255755431233</v>
       </c>
       <c r="U15" t="n">
-        <v>3.771880197272117</v>
+        <v>4.165031055651655</v>
       </c>
       <c r="V15" t="n">
-        <v>2.993068453338871</v>
+        <v>4.157557439538529</v>
       </c>
       <c r="W15" t="n">
-        <v>6.138120871503803</v>
+        <v>2.978095164244951</v>
       </c>
       <c r="X15" t="n">
-        <v>3.608442710435207</v>
+        <v>3.787523678578543</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.510562172671259</v>
+        <v>1.479859188980658</v>
       </c>
       <c r="Z15" t="n">
-        <v>6.624841981991601</v>
+        <v>4.603359697857623</v>
       </c>
       <c r="AA15" t="n">
-        <v>2.995164527173764</v>
+        <v>1.694411513863431</v>
       </c>
       <c r="AB15" t="n">
-        <v>3.429435559065821</v>
+        <v>2.9743152101268</v>
       </c>
       <c r="AC15" t="n">
-        <v>3.440448764145582</v>
+        <v>5.673831306414315</v>
       </c>
       <c r="AD15" t="n">
-        <v>3.569208617332917</v>
+        <v>10.00593095864902</v>
       </c>
       <c r="AE15" t="n">
-        <v>6.419467872309636</v>
+        <v>6.189835436515859</v>
       </c>
       <c r="AF15" t="n">
-        <v>6.993179515361972</v>
+        <v>4.275983248902971</v>
       </c>
       <c r="AG15" t="n">
-        <v>8.916740261613732</v>
+        <v>6.323302822679988</v>
       </c>
       <c r="AH15" t="n">
-        <v>1.307422259482036</v>
+        <v>8.317601700902255</v>
       </c>
       <c r="AI15" t="n">
-        <v>4.113455121175594</v>
+        <v>9.577281975710749</v>
       </c>
       <c r="AJ15" t="n">
-        <v>10.27887828442216</v>
+        <v>6.03014842724727</v>
       </c>
       <c r="AK15" t="n">
-        <v>6.340198011282842</v>
+        <v>1.545853716311702</v>
       </c>
       <c r="AL15" t="n">
-        <v>3.038092704866119</v>
+        <v>4.062232943936272</v>
       </c>
       <c r="AM15" t="n">
-        <v>6.378179884582001</v>
+        <v>5.034289898321124</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.289279728430226</v>
+        <v>2.669177327973427</v>
       </c>
       <c r="AO15" t="n">
-        <v>6.857284753205231</v>
+        <v>5.146401607693988</v>
       </c>
       <c r="AP15" t="n">
-        <v>4.092198706656666</v>
+        <v>2.890044973674064</v>
       </c>
       <c r="AQ15" t="n">
-        <v>3.32035270797131</v>
+        <v>6.498818554452087</v>
       </c>
       <c r="AR15" t="n">
-        <v>6.244862026182313</v>
+        <v>2.436525984883167</v>
       </c>
       <c r="AS15" t="n">
-        <v>3.729911948811385</v>
+        <v>5.130262887228673</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.313175501922606</v>
+        <v>2.48119531655206</v>
       </c>
       <c r="AU15" t="n">
-        <v>1.816451288598379</v>
+        <v>1.068283613317758</v>
       </c>
       <c r="AV15" t="n">
-        <v>4.066332647822682</v>
+        <v>0.3158559278015339</v>
       </c>
       <c r="AW15" t="n">
-        <v>2.551999345988059</v>
+        <v>6.840947142096736</v>
       </c>
       <c r="AX15" t="n">
-        <v>3.136019151763882</v>
+        <v>6.241995744294107</v>
       </c>
     </row>
     <row r="16">
@@ -2821,148 +2821,148 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>10.55687420753469</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>7.985545526359871</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>35.33811849980226</v>
+        <v>6.519583739801933</v>
       </c>
       <c r="F16" t="n">
-        <v>16.73851830030181</v>
+        <v>14.42593330639448</v>
       </c>
       <c r="G16" t="n">
-        <v>4.739921636273444</v>
+        <v>19.25157708009865</v>
       </c>
       <c r="H16" t="n">
-        <v>56.99099358495347</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>40.03554780768434</v>
+        <v>37.18243546410504</v>
       </c>
       <c r="J16" t="n">
-        <v>143.819769213776</v>
+        <v>28.17196418155006</v>
       </c>
       <c r="K16" t="n">
-        <v>69.69203821359581</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>142.3147415247177</v>
+        <v>52.54447987420374</v>
       </c>
       <c r="M16" t="n">
-        <v>48.09915463987042</v>
+        <v>37.91577714065049</v>
       </c>
       <c r="N16" t="n">
-        <v>56.30001371709927</v>
+        <v>110.210063818089</v>
       </c>
       <c r="O16" t="n">
-        <v>17.22352854858436</v>
+        <v>54.20667371030082</v>
       </c>
       <c r="P16" t="n">
-        <v>171.3908423269242</v>
+        <v>171.4870887442108</v>
       </c>
       <c r="Q16" t="n">
-        <v>62.45013195860378</v>
+        <v>38.70533215164836</v>
       </c>
       <c r="R16" t="n">
-        <v>29.74836924042628</v>
+        <v>54.11055632664942</v>
       </c>
       <c r="S16" t="n">
-        <v>104.0246859974536</v>
+        <v>81.98248967605403</v>
       </c>
       <c r="T16" t="n">
-        <v>82.90368875187507</v>
+        <v>57.33066104304731</v>
       </c>
       <c r="U16" t="n">
-        <v>151.3679325440583</v>
+        <v>24.59964665160518</v>
       </c>
       <c r="V16" t="n">
-        <v>347.022007967572</v>
+        <v>1.145336993859001</v>
       </c>
       <c r="W16" t="n">
-        <v>67.66930821640447</v>
+        <v>30.14511849255799</v>
       </c>
       <c r="X16" t="n">
-        <v>61.88383729912721</v>
+        <v>56.75637779365366</v>
       </c>
       <c r="Y16" t="n">
-        <v>57.19756855967673</v>
+        <v>52.83876486668436</v>
       </c>
       <c r="Z16" t="n">
-        <v>62.78421669747829</v>
+        <v>57.15620472861679</v>
       </c>
       <c r="AA16" t="n">
-        <v>81.56141669792913</v>
+        <v>58.76436193759375</v>
       </c>
       <c r="AB16" t="n">
-        <v>62.03922157261523</v>
+        <v>46.41376334064194</v>
       </c>
       <c r="AC16" t="n">
-        <v>66.23042140637061</v>
+        <v>79.30799758433032</v>
       </c>
       <c r="AD16" t="n">
-        <v>105.7993275478437</v>
+        <v>59.43784906033611</v>
       </c>
       <c r="AE16" t="n">
-        <v>90.16339771222272</v>
+        <v>72.99968986219403</v>
       </c>
       <c r="AF16" t="n">
-        <v>45.88844633725905</v>
+        <v>42.9080798203821</v>
       </c>
       <c r="AG16" t="n">
-        <v>74.87661099489803</v>
+        <v>48.30325473189298</v>
       </c>
       <c r="AH16" t="n">
-        <v>59.81635463713241</v>
+        <v>31.00172782544924</v>
       </c>
       <c r="AI16" t="n">
-        <v>86.94351154125174</v>
+        <v>29.81621465111473</v>
       </c>
       <c r="AJ16" t="n">
-        <v>45.60316383254884</v>
+        <v>200.3736386090101</v>
       </c>
       <c r="AK16" t="n">
-        <v>29.50313829429609</v>
+        <v>38.68956447526384</v>
       </c>
       <c r="AL16" t="n">
-        <v>67.88416820228713</v>
+        <v>33.73951492032532</v>
       </c>
       <c r="AM16" t="n">
-        <v>27.68749784197746</v>
+        <v>9.630763357502211</v>
       </c>
       <c r="AN16" t="n">
-        <v>20.04454228884586</v>
+        <v>33.5786874092649</v>
       </c>
       <c r="AO16" t="n">
-        <v>25.24490109569035</v>
+        <v>22.33597122192141</v>
       </c>
       <c r="AP16" t="n">
-        <v>17.34107270057678</v>
+        <v>10.70316143641503</v>
       </c>
       <c r="AQ16" t="n">
-        <v>6.165674716845479</v>
+        <v>28.93491007446504</v>
       </c>
       <c r="AR16" t="n">
-        <v>17.45005435473128</v>
+        <v>14.79460894643319</v>
       </c>
       <c r="AS16" t="n">
-        <v>17.64450231862473</v>
+        <v>5.660649647476871</v>
       </c>
       <c r="AT16" t="n">
-        <v>10.59389299928033</v>
+        <v>12.13273391020725</v>
       </c>
       <c r="AU16" t="n">
-        <v>11.50408582256474</v>
+        <v>22.76918900978395</v>
       </c>
       <c r="AV16" t="n">
-        <v>5.151613210059476</v>
+        <v>15.09464895855914</v>
       </c>
       <c r="AW16" t="n">
-        <v>18.73013369898085</v>
+        <v>8.930783539500174</v>
       </c>
       <c r="AX16" t="n">
-        <v>30.14946046106634</v>
+        <v>7.703267802948455</v>
       </c>
     </row>
     <row r="17">
@@ -2973,148 +2973,148 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>20.71231798993257</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>19.13166930075432</v>
+        <v>25.3761144076488</v>
       </c>
       <c r="E17" t="n">
-        <v>0.716643338755401</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>64.81942527748664</v>
+        <v>11.42010913351303</v>
       </c>
       <c r="G17" t="n">
-        <v>8.190523116147872</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>52.34393909153146</v>
+        <v>6.069851481454107</v>
       </c>
       <c r="I17" t="n">
-        <v>28.02842432344055</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>77.70822727105178</v>
+        <v>146.3445717087729</v>
       </c>
       <c r="K17" t="n">
-        <v>16.90683539687294</v>
+        <v>6.093925599205009</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>47.3266674911989</v>
       </c>
       <c r="M17" t="n">
-        <v>14.26131050971156</v>
+        <v>28.43686859590194</v>
       </c>
       <c r="N17" t="n">
-        <v>30.40739026698249</v>
+        <v>94.99928084792433</v>
       </c>
       <c r="O17" t="n">
-        <v>120.6444576387477</v>
+        <v>36.28756999910595</v>
       </c>
       <c r="P17" t="n">
-        <v>20.12522399502724</v>
+        <v>20.11397015637926</v>
       </c>
       <c r="Q17" t="n">
-        <v>27.59986730485041</v>
+        <v>61.50677034004338</v>
       </c>
       <c r="R17" t="n">
-        <v>27.44230276645624</v>
+        <v>135.3610934549395</v>
       </c>
       <c r="S17" t="n">
-        <v>24.17044236312799</v>
+        <v>36.45259824063016</v>
       </c>
       <c r="T17" t="n">
-        <v>75.49586382387319</v>
+        <v>31.5890173844506</v>
       </c>
       <c r="U17" t="n">
-        <v>60.47135950083889</v>
+        <v>63.20351929911976</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>43.02037893750704</v>
       </c>
       <c r="W17" t="n">
-        <v>78.26844433518336</v>
+        <v>88.4560107137232</v>
       </c>
       <c r="X17" t="n">
-        <v>38.38201680196286</v>
+        <v>20.06562088454197</v>
       </c>
       <c r="Y17" t="n">
-        <v>30.86673969537723</v>
+        <v>157.5343212207875</v>
       </c>
       <c r="Z17" t="n">
-        <v>40.04248046163207</v>
+        <v>49.19209271919615</v>
       </c>
       <c r="AA17" t="n">
-        <v>45.80099873043898</v>
+        <v>38.30149560247563</v>
       </c>
       <c r="AB17" t="n">
-        <v>84.58464486008914</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>4.186098684292569</v>
+        <v>38.81397159193871</v>
       </c>
       <c r="AD17" t="n">
-        <v>64.01542908171288</v>
+        <v>36.12802484118137</v>
       </c>
       <c r="AE17" t="n">
-        <v>42.60050355624252</v>
+        <v>13.98121534327449</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>22.53137965016694</v>
       </c>
       <c r="AG17" t="n">
-        <v>4.567950529070814</v>
+        <v>2.551282382394574</v>
       </c>
       <c r="AH17" t="n">
-        <v>30.34412054619877</v>
+        <v>28.25922573501456</v>
       </c>
       <c r="AI17" t="n">
-        <v>16.99012407869644</v>
+        <v>43.95395189433066</v>
       </c>
       <c r="AJ17" t="n">
-        <v>35.92344552697529</v>
+        <v>3.146967348671282</v>
       </c>
       <c r="AK17" t="n">
-        <v>87.25975155262124</v>
+        <v>29.7414433446228</v>
       </c>
       <c r="AL17" t="n">
-        <v>7.763535292096035</v>
+        <v>36.65352125963062</v>
       </c>
       <c r="AM17" t="n">
-        <v>17.68694436159772</v>
+        <v>24.80193771192668</v>
       </c>
       <c r="AN17" t="n">
-        <v>5.073332446633831</v>
+        <v>9.46523137111074</v>
       </c>
       <c r="AO17" t="n">
-        <v>15.24308965607801</v>
+        <v>21.62230028632559</v>
       </c>
       <c r="AP17" t="n">
-        <v>21.02106912044034</v>
+        <v>38.27130708519135</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.739490323654519</v>
+        <v>29.76685580707705</v>
       </c>
       <c r="AR17" t="n">
-        <v>2.132981887375305</v>
+        <v>78.82930601211736</v>
       </c>
       <c r="AS17" t="n">
-        <v>30.0172525891288</v>
+        <v>48.76455517378319</v>
       </c>
       <c r="AT17" t="n">
-        <v>22.68316622204354</v>
+        <v>4.06762996940771</v>
       </c>
       <c r="AU17" t="n">
-        <v>19.38830432540446</v>
+        <v>39.2754028673904</v>
       </c>
       <c r="AV17" t="n">
-        <v>31.15388672339861</v>
+        <v>35.76494890871117</v>
       </c>
       <c r="AW17" t="n">
-        <v>13.91870826219414</v>
+        <v>36.8983964927433</v>
       </c>
       <c r="AX17" t="n">
-        <v>21.04408794121033</v>
+        <v>14.11761764733449</v>
       </c>
     </row>
     <row r="18">
@@ -3125,148 +3125,148 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>7.623405458114155</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>4.102009842113685</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4732257714315755</v>
+        <v>4.106402609976236</v>
       </c>
       <c r="F18" t="n">
-        <v>5.013476716381062</v>
+        <v>4.644298471175002</v>
       </c>
       <c r="G18" t="n">
-        <v>54.94850927340864</v>
+        <v>11.35553672223216</v>
       </c>
       <c r="H18" t="n">
-        <v>67.73559728089322</v>
+        <v>11.21277844189</v>
       </c>
       <c r="I18" t="n">
-        <v>6.72956604645152</v>
+        <v>72.37402381408961</v>
       </c>
       <c r="J18" t="n">
-        <v>22.03020913296536</v>
+        <v>8.628143538737746</v>
       </c>
       <c r="K18" t="n">
-        <v>22.92286980626357</v>
+        <v>87.69124131435292</v>
       </c>
       <c r="L18" t="n">
-        <v>9.085346590827362</v>
+        <v>7.671128947228289</v>
       </c>
       <c r="M18" t="n">
-        <v>19.65859699128118</v>
+        <v>40.88453622342281</v>
       </c>
       <c r="N18" t="n">
-        <v>49.52922225804074</v>
+        <v>50.33436966022487</v>
       </c>
       <c r="O18" t="n">
-        <v>38.17786392712322</v>
+        <v>20.61152787354621</v>
       </c>
       <c r="P18" t="n">
-        <v>20.10884042081597</v>
+        <v>3.175387216256346</v>
       </c>
       <c r="Q18" t="n">
-        <v>39.93001909582001</v>
+        <v>18.63613031884906</v>
       </c>
       <c r="R18" t="n">
-        <v>48.47316660669669</v>
+        <v>7.176524685193901</v>
       </c>
       <c r="S18" t="n">
-        <v>39.28784948890659</v>
+        <v>45.5405226067795</v>
       </c>
       <c r="T18" t="n">
-        <v>60.93226588245599</v>
+        <v>19.78969986668205</v>
       </c>
       <c r="U18" t="n">
-        <v>17.70766463792025</v>
+        <v>41.46635690823302</v>
       </c>
       <c r="V18" t="n">
-        <v>18.644319400573</v>
+        <v>32.18935686791189</v>
       </c>
       <c r="W18" t="n">
-        <v>27.29084511372516</v>
+        <v>22.46802385544885</v>
       </c>
       <c r="X18" t="n">
-        <v>4.615520426491436</v>
+        <v>20.78134546952296</v>
       </c>
       <c r="Y18" t="n">
-        <v>34.29897863419309</v>
+        <v>12.31512505689298</v>
       </c>
       <c r="Z18" t="n">
-        <v>23.71537026109965</v>
+        <v>14.2569050972248</v>
       </c>
       <c r="AA18" t="n">
-        <v>15.24447482104483</v>
+        <v>21.2301656099513</v>
       </c>
       <c r="AB18" t="n">
-        <v>35.3455267290983</v>
+        <v>7.269294557983761</v>
       </c>
       <c r="AC18" t="n">
-        <v>16.89856316726407</v>
+        <v>15.34123529072607</v>
       </c>
       <c r="AD18" t="n">
-        <v>15.27280037513447</v>
+        <v>3.397445473639814</v>
       </c>
       <c r="AE18" t="n">
-        <v>19.87088434256706</v>
+        <v>26.7206221840404</v>
       </c>
       <c r="AF18" t="n">
-        <v>12.72900404355947</v>
+        <v>10.62387604184475</v>
       </c>
       <c r="AG18" t="n">
-        <v>9.243467239792698</v>
+        <v>2.921757844165286</v>
       </c>
       <c r="AH18" t="n">
-        <v>10.34304561035519</v>
+        <v>11.98811292841496</v>
       </c>
       <c r="AI18" t="n">
-        <v>23.36853026512865</v>
+        <v>8.519797677088359</v>
       </c>
       <c r="AJ18" t="n">
-        <v>14.49056959859718</v>
+        <v>10.45537615621939</v>
       </c>
       <c r="AK18" t="n">
-        <v>7.133745062297971</v>
+        <v>15.1276564349667</v>
       </c>
       <c r="AL18" t="n">
-        <v>5.603473357267731</v>
+        <v>4.745990494124487</v>
       </c>
       <c r="AM18" t="n">
-        <v>3.193840543142251</v>
+        <v>8.186411783198349</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.382170279348507</v>
+        <v>1.942816600418437</v>
       </c>
       <c r="AO18" t="n">
-        <v>4.64047896358829</v>
+        <v>3.85044997601284</v>
       </c>
       <c r="AP18" t="n">
-        <v>3.738447230702396</v>
+        <v>3.220738155811979</v>
       </c>
       <c r="AQ18" t="n">
-        <v>2.461340975202893</v>
+        <v>2.06799183007915</v>
       </c>
       <c r="AR18" t="n">
-        <v>0.8939431025070723</v>
+        <v>1.528804914081752</v>
       </c>
       <c r="AS18" t="n">
-        <v>0</v>
+        <v>4.389307430036283</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.87487803662911</v>
+        <v>1.894683440993233</v>
       </c>
       <c r="AU18" t="n">
-        <v>4.38156270451643</v>
+        <v>0.5201151683774207</v>
       </c>
       <c r="AV18" t="n">
-        <v>1.347862098154487</v>
+        <v>2.892700045666158</v>
       </c>
       <c r="AW18" t="n">
-        <v>6.339765417063744</v>
+        <v>3.881041428475188</v>
       </c>
       <c r="AX18" t="n">
-        <v>3.910496924815388</v>
+        <v>1.870861155511618</v>
       </c>
     </row>
     <row r="19">
@@ -3277,148 +3277,148 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>10.79146381455982</v>
+        <v>6.646097567093646</v>
       </c>
       <c r="D19" t="n">
-        <v>2.319305044291832</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>4.4428689231775</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>75.59018642674356</v>
+        <v>0.4526231507934035</v>
       </c>
       <c r="G19" t="n">
-        <v>8.33676285521846</v>
+        <v>24.36005526965736</v>
       </c>
       <c r="H19" t="n">
-        <v>16.24366847514138</v>
+        <v>16.35753460249814</v>
       </c>
       <c r="I19" t="n">
-        <v>64.32114050879045</v>
+        <v>5.58732613033548</v>
       </c>
       <c r="J19" t="n">
-        <v>22.76908160091426</v>
+        <v>9.415673863565885</v>
       </c>
       <c r="K19" t="n">
-        <v>18.15510592748636</v>
+        <v>33.34115181962451</v>
       </c>
       <c r="L19" t="n">
-        <v>31.68042388470732</v>
+        <v>28.40948255241866</v>
       </c>
       <c r="M19" t="n">
-        <v>56.27908834116106</v>
+        <v>45.10812798804645</v>
       </c>
       <c r="N19" t="n">
-        <v>20.20660489533327</v>
+        <v>11.09145393131818</v>
       </c>
       <c r="O19" t="n">
-        <v>22.79083560302267</v>
+        <v>29.51279333329688</v>
       </c>
       <c r="P19" t="n">
-        <v>44.54057675271522</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.65448744927835</v>
+        <v>44.14334721799018</v>
       </c>
       <c r="R19" t="n">
-        <v>116.9228074791674</v>
+        <v>53.86243546658714</v>
       </c>
       <c r="S19" t="n">
-        <v>23.35947900646207</v>
+        <v>13.34253756764268</v>
       </c>
       <c r="T19" t="n">
-        <v>6.177555248946228</v>
+        <v>85.41351718832348</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>2.347075981484206</v>
       </c>
       <c r="V19" t="n">
-        <v>37.03511799299579</v>
+        <v>37.2378339788938</v>
       </c>
       <c r="W19" t="n">
-        <v>17.15203839226201</v>
+        <v>12.73878072328098</v>
       </c>
       <c r="X19" t="n">
-        <v>28.228863196577</v>
+        <v>14.3369809387761</v>
       </c>
       <c r="Y19" t="n">
-        <v>21.48203061255005</v>
+        <v>28.42567771871681</v>
       </c>
       <c r="Z19" t="n">
-        <v>30.35576568927027</v>
+        <v>38.6842608951487</v>
       </c>
       <c r="AA19" t="n">
-        <v>24.22840963727718</v>
+        <v>22.83092526746211</v>
       </c>
       <c r="AB19" t="n">
-        <v>5.621804214887971</v>
+        <v>26.80374559700024</v>
       </c>
       <c r="AC19" t="n">
-        <v>48.28432303769871</v>
+        <v>7.127006508198527</v>
       </c>
       <c r="AD19" t="n">
-        <v>35.12063595868297</v>
+        <v>6.320809430753272</v>
       </c>
       <c r="AE19" t="n">
-        <v>17.118889776613</v>
+        <v>8.457816081900724</v>
       </c>
       <c r="AF19" t="n">
-        <v>9.294253058276105</v>
+        <v>4.109347848396436</v>
       </c>
       <c r="AG19" t="n">
-        <v>7.079686044539424</v>
+        <v>5.594016854809269</v>
       </c>
       <c r="AH19" t="n">
-        <v>16.77398739813233</v>
+        <v>7.631049463640728</v>
       </c>
       <c r="AI19" t="n">
-        <v>8.940128917559365</v>
+        <v>37.73191176944368</v>
       </c>
       <c r="AJ19" t="n">
-        <v>42.6000476728172</v>
+        <v>14.34376917114758</v>
       </c>
       <c r="AK19" t="n">
-        <v>5.979820592959674</v>
+        <v>0.5667752305877025</v>
       </c>
       <c r="AL19" t="n">
-        <v>0.9684006981633382</v>
+        <v>0</v>
       </c>
       <c r="AM19" t="n">
-        <v>9.367347782963355</v>
+        <v>1.154753911409795</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.851920278509442</v>
+        <v>8.813683383686755</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>9.019344200776807</v>
       </c>
       <c r="AP19" t="n">
-        <v>4.951043593591114</v>
+        <v>12.0021099185617</v>
       </c>
       <c r="AQ19" t="n">
-        <v>3.453416594101375</v>
+        <v>1.401108307625635</v>
       </c>
       <c r="AR19" t="n">
-        <v>7.236853738450517</v>
+        <v>5.068439663582703</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.626183445905729</v>
+        <v>3.050305211084622</v>
       </c>
       <c r="AT19" t="n">
-        <v>8.107588800918846</v>
+        <v>9.019856106085044</v>
       </c>
       <c r="AU19" t="n">
-        <v>0</v>
+        <v>5.384266091839506</v>
       </c>
       <c r="AV19" t="n">
-        <v>5.121682246838612</v>
+        <v>11.59645699270918</v>
       </c>
       <c r="AW19" t="n">
-        <v>58.41772443850932</v>
+        <v>8.050835286505267</v>
       </c>
       <c r="AX19" t="n">
-        <v>4.60409994144079</v>
+        <v>12.19648235741496</v>
       </c>
     </row>
     <row r="20">
@@ -3429,148 +3429,148 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>31.97528983552311</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>15.57981682589736</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>21.32868499012159</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.198991999251902</v>
+        <v>23.39644926045738</v>
       </c>
       <c r="H20" t="n">
-        <v>22.36813725926494</v>
+        <v>10.31101639071678</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>62.07166015610665</v>
+        <v>130.0090851540413</v>
       </c>
       <c r="K20" t="n">
-        <v>41.2742990068984</v>
+        <v>80.58451967747064</v>
       </c>
       <c r="L20" t="n">
-        <v>60.35573794060164</v>
+        <v>66.67689733211574</v>
       </c>
       <c r="M20" t="n">
-        <v>75.40912685282913</v>
+        <v>316.7731090019602</v>
       </c>
       <c r="N20" t="n">
-        <v>5.467543721050994</v>
+        <v>96.91675458734427</v>
       </c>
       <c r="O20" t="n">
-        <v>9.234676236305839</v>
+        <v>51.64009462641237</v>
       </c>
       <c r="P20" t="n">
-        <v>82.06784785169977</v>
+        <v>47.87212126255669</v>
       </c>
       <c r="Q20" t="n">
-        <v>76.00877268734214</v>
+        <v>43.25629144515677</v>
       </c>
       <c r="R20" t="n">
-        <v>45.41084708767081</v>
+        <v>36.86175047470071</v>
       </c>
       <c r="S20" t="n">
-        <v>48.68244592456664</v>
+        <v>33.51230123488536</v>
       </c>
       <c r="T20" t="n">
-        <v>59.54129894140636</v>
+        <v>13.2200312399927</v>
       </c>
       <c r="U20" t="n">
-        <v>39.17150520116725</v>
+        <v>66.12654986416331</v>
       </c>
       <c r="V20" t="n">
-        <v>103.0729150620043</v>
+        <v>89.68337547849444</v>
       </c>
       <c r="W20" t="n">
-        <v>39.40324773033197</v>
+        <v>56.19824289916581</v>
       </c>
       <c r="X20" t="n">
-        <v>35.16771613131183</v>
+        <v>39.21225483418468</v>
       </c>
       <c r="Y20" t="n">
-        <v>55.98357742766703</v>
+        <v>44.10163813331552</v>
       </c>
       <c r="Z20" t="n">
-        <v>54.29235908048048</v>
+        <v>68.7842535076459</v>
       </c>
       <c r="AA20" t="n">
-        <v>80.25953883681854</v>
+        <v>79.93329976159012</v>
       </c>
       <c r="AB20" t="n">
-        <v>101.0197718839486</v>
+        <v>112.1078201042274</v>
       </c>
       <c r="AC20" t="n">
-        <v>41.87023501622522</v>
+        <v>153.6944075347299</v>
       </c>
       <c r="AD20" t="n">
-        <v>77.81116594035451</v>
+        <v>71.42937569810898</v>
       </c>
       <c r="AE20" t="n">
-        <v>121.5938452366307</v>
+        <v>25.90182296474142</v>
       </c>
       <c r="AF20" t="n">
-        <v>132.559969310221</v>
+        <v>177.7523200980486</v>
       </c>
       <c r="AG20" t="n">
-        <v>140.4709473390294</v>
+        <v>195.2774321094356</v>
       </c>
       <c r="AH20" t="n">
-        <v>92.24343480197302</v>
+        <v>189.274171139886</v>
       </c>
       <c r="AI20" t="n">
-        <v>99.83088668784276</v>
+        <v>56.96398265383758</v>
       </c>
       <c r="AJ20" t="n">
-        <v>59.39959415796571</v>
+        <v>75.67674624478197</v>
       </c>
       <c r="AK20" t="n">
-        <v>67.47180392047727</v>
+        <v>54.22947826702769</v>
       </c>
       <c r="AL20" t="n">
-        <v>56.99711777634646</v>
+        <v>97.08620892810559</v>
       </c>
       <c r="AM20" t="n">
-        <v>33.12719189815519</v>
+        <v>27.99841121178799</v>
       </c>
       <c r="AN20" t="n">
-        <v>41.47748477565179</v>
+        <v>13.29241237526043</v>
       </c>
       <c r="AO20" t="n">
-        <v>43.81269294657432</v>
+        <v>54.99222271865174</v>
       </c>
       <c r="AP20" t="n">
-        <v>23.9555097038659</v>
+        <v>22.92112986215691</v>
       </c>
       <c r="AQ20" t="n">
-        <v>13.45211134782421</v>
+        <v>22.79454969689199</v>
       </c>
       <c r="AR20" t="n">
-        <v>4.944876240546255</v>
+        <v>28.44482037204256</v>
       </c>
       <c r="AS20" t="n">
-        <v>10.19939541163316</v>
+        <v>28.43126682391044</v>
       </c>
       <c r="AT20" t="n">
-        <v>23.35209297283826</v>
+        <v>17.51357531104403</v>
       </c>
       <c r="AU20" t="n">
-        <v>24.14219023531638</v>
+        <v>32.19438725928279</v>
       </c>
       <c r="AV20" t="n">
-        <v>13.03179481818599</v>
+        <v>16.25507873868459</v>
       </c>
       <c r="AW20" t="n">
-        <v>18.39865113329919</v>
+        <v>18.50530243390434</v>
       </c>
       <c r="AX20" t="n">
-        <v>30.09095604358689</v>
+        <v>15.51178968225118</v>
       </c>
     </row>
     <row r="21">
@@ -3581,148 +3581,148 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>1.956580340082733</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1.81490953404364</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>2.906300571046208</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>2.38872594099098</v>
+        <v>3.106430646783539</v>
       </c>
       <c r="G21" t="n">
-        <v>2.679973266997274</v>
+        <v>1.866679224164812</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1205989468249943</v>
+        <v>3.387701557710697</v>
       </c>
       <c r="I21" t="n">
-        <v>2.163270583895818</v>
+        <v>8.786720626671874</v>
       </c>
       <c r="J21" t="n">
-        <v>2.829032131658314</v>
+        <v>1.969760368288459</v>
       </c>
       <c r="K21" t="n">
-        <v>1.987194808790694</v>
+        <v>4.66757328081048</v>
       </c>
       <c r="L21" t="n">
-        <v>3.21883977937004</v>
+        <v>3.76910838090981</v>
       </c>
       <c r="M21" t="n">
-        <v>1.082193336024592</v>
+        <v>4.160376410782505</v>
       </c>
       <c r="N21" t="n">
-        <v>1.827956857877018</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>5.514517991464096</v>
+        <v>2.509739521747872</v>
       </c>
       <c r="P21" t="n">
-        <v>1.788862185687151</v>
+        <v>1.865049970254746</v>
       </c>
       <c r="Q21" t="n">
-        <v>12.92762745430425</v>
+        <v>6.855069114008941</v>
       </c>
       <c r="R21" t="n">
-        <v>2.619943889585219</v>
+        <v>7.126668376495032</v>
       </c>
       <c r="S21" t="n">
-        <v>6.323637565642368</v>
+        <v>5.044345118604005</v>
       </c>
       <c r="T21" t="n">
-        <v>5.872354718565012</v>
+        <v>0.7389546377577261</v>
       </c>
       <c r="U21" t="n">
-        <v>2.40453829942466</v>
+        <v>9.69933756595624</v>
       </c>
       <c r="V21" t="n">
-        <v>2.283738950770715</v>
+        <v>4.420752858898087</v>
       </c>
       <c r="W21" t="n">
-        <v>6.12229213668204</v>
+        <v>3.959661780699256</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>3.087769416111878</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.754934203131465</v>
+        <v>3.284015206005326</v>
       </c>
       <c r="Z21" t="n">
-        <v>6.02240120488754</v>
+        <v>1.560574773168776</v>
       </c>
       <c r="AA21" t="n">
-        <v>1.452608187297667</v>
+        <v>3.75644500409146</v>
       </c>
       <c r="AB21" t="n">
-        <v>5.781470610573251</v>
+        <v>3.648304954558578</v>
       </c>
       <c r="AC21" t="n">
-        <v>4.261128672303158</v>
+        <v>3.880468098017263</v>
       </c>
       <c r="AD21" t="n">
-        <v>3.977231051033502</v>
+        <v>6.007389910840528</v>
       </c>
       <c r="AE21" t="n">
-        <v>5.325476179751414</v>
+        <v>5.62481494562471</v>
       </c>
       <c r="AF21" t="n">
-        <v>6.416619305701506</v>
+        <v>2.945505118533697</v>
       </c>
       <c r="AG21" t="n">
-        <v>1.219235122140474</v>
+        <v>12.89392249048285</v>
       </c>
       <c r="AH21" t="n">
-        <v>6.104048344953982</v>
+        <v>5.438011017792516</v>
       </c>
       <c r="AI21" t="n">
-        <v>7.134165766238334</v>
+        <v>3.378605223308291</v>
       </c>
       <c r="AJ21" t="n">
-        <v>2.687631237840619</v>
+        <v>5.059583545897375</v>
       </c>
       <c r="AK21" t="n">
-        <v>4.422877212383094</v>
+        <v>5.186194908842833</v>
       </c>
       <c r="AL21" t="n">
-        <v>5.511638284366765</v>
+        <v>4.349516156587502</v>
       </c>
       <c r="AM21" t="n">
-        <v>4.598564645305262</v>
+        <v>1.974470372368681</v>
       </c>
       <c r="AN21" t="n">
-        <v>4.967709560549019</v>
+        <v>8.562018910206989</v>
       </c>
       <c r="AO21" t="n">
-        <v>2.486936994989294</v>
+        <v>6.181295132926814</v>
       </c>
       <c r="AP21" t="n">
-        <v>3.358734970912957</v>
+        <v>5.237523146029484</v>
       </c>
       <c r="AQ21" t="n">
-        <v>10.27423363619419</v>
+        <v>4.591967672383395</v>
       </c>
       <c r="AR21" t="n">
-        <v>4.007013964384424</v>
+        <v>3.886683109189905</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.222582518787708</v>
+        <v>3.301788304918648</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.715292211543443</v>
+        <v>2.884465059418004</v>
       </c>
       <c r="AU21" t="n">
-        <v>2.515237942616455</v>
+        <v>1.848346327162642</v>
       </c>
       <c r="AV21" t="n">
-        <v>3.797872983294096</v>
+        <v>4.869792970888332</v>
       </c>
       <c r="AW21" t="n">
-        <v>1.075348340486641</v>
+        <v>7.23737353359363</v>
       </c>
       <c r="AX21" t="n">
-        <v>1.832378050975818</v>
+        <v>3.336172308074298</v>
       </c>
     </row>
     <row r="22">
@@ -3733,148 +3733,148 @@
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>17.07543369704739</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>33.72780941205088</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>8.515252139669657</v>
+        <v>4.324416121589419</v>
       </c>
       <c r="F22" t="n">
-        <v>5.613675559495076</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>16.85549445397406</v>
+        <v>69.75686738461684</v>
       </c>
       <c r="I22" t="n">
-        <v>4.941398184433364</v>
+        <v>8.346303306367785</v>
       </c>
       <c r="J22" t="n">
-        <v>76.60176056927813</v>
+        <v>52.96756583719041</v>
       </c>
       <c r="K22" t="n">
-        <v>99.56998215502635</v>
+        <v>50.99575837191382</v>
       </c>
       <c r="L22" t="n">
-        <v>69.75479436881295</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>48.63562085836911</v>
+        <v>130.3630556336526</v>
       </c>
       <c r="N22" t="n">
-        <v>37.63102139087814</v>
+        <v>112.4064533733817</v>
       </c>
       <c r="O22" t="n">
-        <v>105.54293685623</v>
+        <v>15.44068383782747</v>
       </c>
       <c r="P22" t="n">
-        <v>100.1777510404809</v>
+        <v>97.80829990346636</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.86570761976563</v>
+        <v>66.09499788072759</v>
       </c>
       <c r="R22" t="n">
-        <v>20.12653247847628</v>
+        <v>56.82934179693949</v>
       </c>
       <c r="S22" t="n">
-        <v>24.23234145867465</v>
+        <v>29.67291116228568</v>
       </c>
       <c r="T22" t="n">
-        <v>95.50892505407273</v>
+        <v>52.1140305224853</v>
       </c>
       <c r="U22" t="n">
-        <v>73.67431746195882</v>
+        <v>80.67916976932186</v>
       </c>
       <c r="V22" t="n">
-        <v>164.3686616428593</v>
+        <v>12.21538664791491</v>
       </c>
       <c r="W22" t="n">
-        <v>19.31046376041852</v>
+        <v>66.12210743868094</v>
       </c>
       <c r="X22" t="n">
-        <v>96.92147925649634</v>
+        <v>88.75361721192428</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.41669065556736</v>
+        <v>20.79634105923735</v>
       </c>
       <c r="Z22" t="n">
-        <v>38.71338715385077</v>
+        <v>96.64436614024477</v>
       </c>
       <c r="AA22" t="n">
-        <v>51.86682479519649</v>
+        <v>62.53248778264086</v>
       </c>
       <c r="AB22" t="n">
-        <v>107.8188294892914</v>
+        <v>54.05019853735534</v>
       </c>
       <c r="AC22" t="n">
-        <v>60.85660547039997</v>
+        <v>91.26371059149622</v>
       </c>
       <c r="AD22" t="n">
-        <v>60.16956866661482</v>
+        <v>93.6694857417742</v>
       </c>
       <c r="AE22" t="n">
-        <v>91.91489103417686</v>
+        <v>75.77603510781154</v>
       </c>
       <c r="AF22" t="n">
-        <v>64.47754655219514</v>
+        <v>53.66907551891069</v>
       </c>
       <c r="AG22" t="n">
-        <v>45.034681167088</v>
+        <v>47.76347715146923</v>
       </c>
       <c r="AH22" t="n">
-        <v>69.83425333971128</v>
+        <v>52.26260314950572</v>
       </c>
       <c r="AI22" t="n">
-        <v>108.3249892458227</v>
+        <v>14.89700442758747</v>
       </c>
       <c r="AJ22" t="n">
-        <v>20.3063725042219</v>
+        <v>38.20786001832811</v>
       </c>
       <c r="AK22" t="n">
-        <v>32.50905356294375</v>
+        <v>40.92585179034957</v>
       </c>
       <c r="AL22" t="n">
-        <v>35.56305412552699</v>
+        <v>38.82481491598217</v>
       </c>
       <c r="AM22" t="n">
-        <v>19.98322415404267</v>
+        <v>18.20685463677988</v>
       </c>
       <c r="AN22" t="n">
-        <v>12.28791995243267</v>
+        <v>11.7930015134636</v>
       </c>
       <c r="AO22" t="n">
-        <v>17.49240257196458</v>
+        <v>36.49972043892985</v>
       </c>
       <c r="AP22" t="n">
-        <v>23.53966335617649</v>
+        <v>14.31745477327402</v>
       </c>
       <c r="AQ22" t="n">
-        <v>15.55634535848917</v>
+        <v>11.08697024105534</v>
       </c>
       <c r="AR22" t="n">
-        <v>19.11441430116624</v>
+        <v>29.30556224063752</v>
       </c>
       <c r="AS22" t="n">
-        <v>32.51752288689748</v>
+        <v>7.799044574549178</v>
       </c>
       <c r="AT22" t="n">
-        <v>14.02041204503891</v>
+        <v>13.92111116013076</v>
       </c>
       <c r="AU22" t="n">
-        <v>4.263863343783811</v>
+        <v>17.09931183542296</v>
       </c>
       <c r="AV22" t="n">
-        <v>16.70154070415583</v>
+        <v>17.48136001560828</v>
       </c>
       <c r="AW22" t="n">
-        <v>10.65442712171396</v>
+        <v>6.509354535317572</v>
       </c>
       <c r="AX22" t="n">
-        <v>9.664461763181873</v>
+        <v>8.752496689408774</v>
       </c>
     </row>
     <row r="23">
@@ -3885,148 +3885,148 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>9.323367197775973</v>
+        <v>4.55614782564041</v>
       </c>
       <c r="D23" t="n">
-        <v>5.02006496533863</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>21.80448308123792</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>8.906592967419328</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>22.19338181095767</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>104.6582813041328</v>
+        <v>14.22539416247143</v>
       </c>
       <c r="I23" t="n">
-        <v>16.75957517162842</v>
+        <v>25.26388698657288</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>58.57336216711655</v>
       </c>
       <c r="K23" t="n">
-        <v>17.18022085403609</v>
+        <v>33.17508507008951</v>
       </c>
       <c r="L23" t="n">
-        <v>85.72694934929785</v>
+        <v>13.04297764193924</v>
       </c>
       <c r="M23" t="n">
-        <v>26.49891735908218</v>
+        <v>32.74307770077574</v>
       </c>
       <c r="N23" t="n">
-        <v>228.0171946157888</v>
+        <v>62.56107908307644</v>
       </c>
       <c r="O23" t="n">
-        <v>14.09613923388058</v>
+        <v>27.05578318377479</v>
       </c>
       <c r="P23" t="n">
-        <v>76.99855758250959</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>14.75495695491464</v>
+        <v>51.86053154599634</v>
       </c>
       <c r="R23" t="n">
-        <v>3.121105236030594</v>
+        <v>1.899489997736907</v>
       </c>
       <c r="S23" t="n">
-        <v>50.44573350565836</v>
+        <v>170.661573806053</v>
       </c>
       <c r="T23" t="n">
-        <v>225.5272656342855</v>
+        <v>24.32870807018822</v>
       </c>
       <c r="U23" t="n">
-        <v>68.61882725863896</v>
+        <v>49.8682642085615</v>
       </c>
       <c r="V23" t="n">
-        <v>49.9840859026344</v>
+        <v>49.49278881133318</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>37.14490701594755</v>
       </c>
       <c r="X23" t="n">
-        <v>146.881470727465</v>
+        <v>40.74773548179753</v>
       </c>
       <c r="Y23" t="n">
-        <v>65.52288279703437</v>
+        <v>49.99746900628862</v>
       </c>
       <c r="Z23" t="n">
-        <v>49.40151430133952</v>
+        <v>110.9245034456083</v>
       </c>
       <c r="AA23" t="n">
-        <v>19.92167524772574</v>
+        <v>45.35133778883609</v>
       </c>
       <c r="AB23" t="n">
-        <v>25.95522387270351</v>
+        <v>34.61918448368473</v>
       </c>
       <c r="AC23" t="n">
-        <v>41.61027802396334</v>
+        <v>34.67957912695014</v>
       </c>
       <c r="AD23" t="n">
-        <v>84.69282745930022</v>
+        <v>59.90676349227741</v>
       </c>
       <c r="AE23" t="n">
-        <v>7.233475607778248</v>
+        <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>23.20269350262618</v>
+        <v>0.8685129176080337</v>
       </c>
       <c r="AG23" t="n">
-        <v>2.279468283009716</v>
+        <v>12.05760169197755</v>
       </c>
       <c r="AH23" t="n">
-        <v>44.13119654295352</v>
+        <v>29.61012258785502</v>
       </c>
       <c r="AI23" t="n">
-        <v>30.47867845306072</v>
+        <v>29.24558421176047</v>
       </c>
       <c r="AJ23" t="n">
-        <v>35.59229924224566</v>
+        <v>40.63899511090418</v>
       </c>
       <c r="AK23" t="n">
-        <v>31.12093303414112</v>
+        <v>8.590916732679936</v>
       </c>
       <c r="AL23" t="n">
-        <v>13.68822645320347</v>
+        <v>28.80961062505023</v>
       </c>
       <c r="AM23" t="n">
-        <v>27.42064386776694</v>
+        <v>26.52905856799822</v>
       </c>
       <c r="AN23" t="n">
-        <v>37.11239563899198</v>
+        <v>24.59719363867441</v>
       </c>
       <c r="AO23" t="n">
-        <v>21.21063161681601</v>
+        <v>23.48884508147848</v>
       </c>
       <c r="AP23" t="n">
-        <v>17.10493303817517</v>
+        <v>26.7750629739717</v>
       </c>
       <c r="AQ23" t="n">
-        <v>28.13814749876842</v>
+        <v>30.33539634604293</v>
       </c>
       <c r="AR23" t="n">
-        <v>26.1722720951056</v>
+        <v>28.81924709710825</v>
       </c>
       <c r="AS23" t="n">
-        <v>29.71117663541981</v>
+        <v>21.97545151328372</v>
       </c>
       <c r="AT23" t="n">
-        <v>17.98490146039729</v>
+        <v>41.1171092185737</v>
       </c>
       <c r="AU23" t="n">
-        <v>31.21746379729251</v>
+        <v>31.29618563429286</v>
       </c>
       <c r="AV23" t="n">
-        <v>31.20741122791454</v>
+        <v>36.91121127675532</v>
       </c>
       <c r="AW23" t="n">
-        <v>30.88105410402657</v>
+        <v>11.71014884636371</v>
       </c>
       <c r="AX23" t="n">
-        <v>4.240491526658883</v>
+        <v>24.3431524924907</v>
       </c>
     </row>
     <row r="24">
@@ -4037,148 +4037,148 @@
         <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>7.024587657893868</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>5.453705773869114</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5594782930539726</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>10.07594206984026</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>3.099224373975771</v>
+        <v>17.72407446942438</v>
       </c>
       <c r="H24" t="n">
-        <v>10.80399759601635</v>
+        <v>26.03382245370164</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7689246028803534</v>
+        <v>10.85270617538218</v>
       </c>
       <c r="J24" t="n">
-        <v>8.780279073647137</v>
+        <v>32.34330638286218</v>
       </c>
       <c r="K24" t="n">
-        <v>7.515207178904975</v>
+        <v>22.76647302775862</v>
       </c>
       <c r="L24" t="n">
-        <v>16.57161844449893</v>
+        <v>35.31217703583383</v>
       </c>
       <c r="M24" t="n">
-        <v>10.11765064473629</v>
+        <v>0.3634365184308939</v>
       </c>
       <c r="N24" t="n">
-        <v>38.97924320538078</v>
+        <v>27.10359064309166</v>
       </c>
       <c r="O24" t="n">
-        <v>25.42111982752591</v>
+        <v>24.87835894165585</v>
       </c>
       <c r="P24" t="n">
-        <v>21.61883355407803</v>
+        <v>31.53474897610369</v>
       </c>
       <c r="Q24" t="n">
-        <v>19.17998115769357</v>
+        <v>37.21932418876139</v>
       </c>
       <c r="R24" t="n">
-        <v>26.27245034072671</v>
+        <v>8.221566880522843</v>
       </c>
       <c r="S24" t="n">
-        <v>14.57009271856449</v>
+        <v>32.91339567572127</v>
       </c>
       <c r="T24" t="n">
-        <v>11.37906579924377</v>
+        <v>9.389962012030976</v>
       </c>
       <c r="U24" t="n">
-        <v>20.64356171813098</v>
+        <v>21.00606739565907</v>
       </c>
       <c r="V24" t="n">
-        <v>28.83734245824078</v>
+        <v>27.59591292339657</v>
       </c>
       <c r="W24" t="n">
-        <v>18.73774191583616</v>
+        <v>29.76464705930553</v>
       </c>
       <c r="X24" t="n">
-        <v>23.48799501902381</v>
+        <v>15.61115326613645</v>
       </c>
       <c r="Y24" t="n">
-        <v>21.31651765634036</v>
+        <v>31.96722774610589</v>
       </c>
       <c r="Z24" t="n">
-        <v>56.89606627795664</v>
+        <v>12.73423535589824</v>
       </c>
       <c r="AA24" t="n">
-        <v>19.99585311785457</v>
+        <v>36.77385746923263</v>
       </c>
       <c r="AB24" t="n">
-        <v>24.13375638119689</v>
+        <v>23.50156169896764</v>
       </c>
       <c r="AC24" t="n">
-        <v>43.7547485653939</v>
+        <v>16.52320962293955</v>
       </c>
       <c r="AD24" t="n">
-        <v>12.49739400915631</v>
+        <v>14.04200986230012</v>
       </c>
       <c r="AE24" t="n">
-        <v>16.69250072235261</v>
+        <v>12.59732053748162</v>
       </c>
       <c r="AF24" t="n">
-        <v>8.24903642029774</v>
+        <v>17.97456943476316</v>
       </c>
       <c r="AG24" t="n">
-        <v>2.432657707289466</v>
+        <v>13.91447265148596</v>
       </c>
       <c r="AH24" t="n">
-        <v>6.832182335005658</v>
+        <v>16.25504660861593</v>
       </c>
       <c r="AI24" t="n">
-        <v>6.986666043518301</v>
+        <v>6.467144228261201</v>
       </c>
       <c r="AJ24" t="n">
-        <v>7.089585116162485</v>
+        <v>11.57277327535928</v>
       </c>
       <c r="AK24" t="n">
-        <v>7.32052461814184</v>
+        <v>4.089255340087828</v>
       </c>
       <c r="AL24" t="n">
-        <v>8.178853729579142</v>
+        <v>3.672218961870783</v>
       </c>
       <c r="AM24" t="n">
-        <v>1.416862309305161</v>
+        <v>5.342738303203838</v>
       </c>
       <c r="AN24" t="n">
-        <v>14.12444028050099</v>
+        <v>3.583897793131452</v>
       </c>
       <c r="AO24" t="n">
-        <v>1.091479159734284</v>
+        <v>6.107601197390012</v>
       </c>
       <c r="AP24" t="n">
-        <v>5.125564305987179</v>
+        <v>2.19263067416003</v>
       </c>
       <c r="AQ24" t="n">
-        <v>4.99390301601383</v>
+        <v>1.809175516268104</v>
       </c>
       <c r="AR24" t="n">
-        <v>1.214903646909586</v>
+        <v>2.101598847207002</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.605437299447083</v>
+        <v>0.08745850916342945</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.446310100578287</v>
+        <v>2.421473328521309</v>
       </c>
       <c r="AU24" t="n">
-        <v>1.588589298892961</v>
+        <v>0.6936332710445611</v>
       </c>
       <c r="AV24" t="n">
-        <v>3.238539529947336</v>
+        <v>3.332859756091334</v>
       </c>
       <c r="AW24" t="n">
-        <v>1.845561822469103</v>
+        <v>0.4991119593475279</v>
       </c>
       <c r="AX24" t="n">
-        <v>3.733024079192824</v>
+        <v>3.58160607245731</v>
       </c>
     </row>
     <row r="25">
@@ -4189,148 +4189,148 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>4.857189484810417</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>19.26283733943005</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>23.95790032443873</v>
+        <v>9.421919597192275</v>
       </c>
       <c r="F25" t="n">
-        <v>15.69466492493023</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>55.57743602401327</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>9.577034375233779</v>
       </c>
       <c r="I25" t="n">
-        <v>10.94005066179718</v>
+        <v>40.14478077320521</v>
       </c>
       <c r="J25" t="n">
-        <v>7.247054670636214</v>
+        <v>5.080871899480419</v>
       </c>
       <c r="K25" t="n">
-        <v>8.132948637307805</v>
+        <v>6.191046572028462</v>
       </c>
       <c r="L25" t="n">
-        <v>7.294205213062418</v>
+        <v>47.41081329857339</v>
       </c>
       <c r="M25" t="n">
-        <v>33.91819286798332</v>
+        <v>23.95243562503926</v>
       </c>
       <c r="N25" t="n">
-        <v>80.5873494962587</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>31.91306506722828</v>
+        <v>31.37381934909297</v>
       </c>
       <c r="P25" t="n">
-        <v>21.15743973616888</v>
+        <v>22.43892096886301</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.46520713705763</v>
+        <v>23.37981271622772</v>
       </c>
       <c r="R25" t="n">
-        <v>27.98055833345019</v>
+        <v>49.90932767321458</v>
       </c>
       <c r="S25" t="n">
-        <v>32.96990236195922</v>
+        <v>79.23143123414928</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>15.52703078801498</v>
       </c>
       <c r="U25" t="n">
-        <v>17.33499551385814</v>
+        <v>30.14475782002501</v>
       </c>
       <c r="V25" t="n">
-        <v>21.6570652418195</v>
+        <v>43.19919390084564</v>
       </c>
       <c r="W25" t="n">
-        <v>19.82774742342639</v>
+        <v>87.24522024408201</v>
       </c>
       <c r="X25" t="n">
-        <v>34.86952413087911</v>
+        <v>28.68320300228827</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.4777220956977</v>
+        <v>6.867404686517491</v>
       </c>
       <c r="Z25" t="n">
-        <v>2.647462359576973</v>
+        <v>44.76112105770252</v>
       </c>
       <c r="AA25" t="n">
-        <v>24.43689349322527</v>
+        <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>12.91137148302505</v>
+        <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>3.986892845436608</v>
+        <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>35.06361832162062</v>
+        <v>75.77211030022336</v>
       </c>
       <c r="AE25" t="n">
-        <v>1.798025388781461</v>
+        <v>9.090073103797994</v>
       </c>
       <c r="AF25" t="n">
-        <v>5.262627159207028</v>
+        <v>4.856239595901471</v>
       </c>
       <c r="AG25" t="n">
-        <v>7.119105084044664</v>
+        <v>2.096217140468528</v>
       </c>
       <c r="AH25" t="n">
-        <v>1.841872043714038</v>
+        <v>11.82683092142442</v>
       </c>
       <c r="AI25" t="n">
-        <v>5.590819074655391</v>
+        <v>6.443537995260333</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0.05090891316751911</v>
+        <v>17.16927060855731</v>
       </c>
       <c r="AK25" t="n">
-        <v>0</v>
+        <v>0.8767541623505081</v>
       </c>
       <c r="AL25" t="n">
-        <v>15.40204125457921</v>
+        <v>10.27497308420619</v>
       </c>
       <c r="AM25" t="n">
-        <v>4.883142763816877</v>
+        <v>1.109016346789889</v>
       </c>
       <c r="AN25" t="n">
-        <v>5.909458460696492</v>
+        <v>21.71332634888906</v>
       </c>
       <c r="AO25" t="n">
-        <v>23.65651945288507</v>
+        <v>11.19583910022751</v>
       </c>
       <c r="AP25" t="n">
-        <v>21.74881162331666</v>
+        <v>3.247251441747112</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.690545170660379</v>
+        <v>0.4243661586387308</v>
       </c>
       <c r="AR25" t="n">
-        <v>9.857755987234521</v>
+        <v>3.131108760221127</v>
       </c>
       <c r="AS25" t="n">
-        <v>7.889817164806631</v>
+        <v>4.865481061828121</v>
       </c>
       <c r="AT25" t="n">
-        <v>3.846889537360302</v>
+        <v>3.086123454250403</v>
       </c>
       <c r="AU25" t="n">
-        <v>1.819265734771496</v>
+        <v>14.1720547024528</v>
       </c>
       <c r="AV25" t="n">
-        <v>11.59700440498499</v>
+        <v>3.728444783989632</v>
       </c>
       <c r="AW25" t="n">
-        <v>9.035805916513604</v>
+        <v>8.800376560820967</v>
       </c>
       <c r="AX25" t="n">
-        <v>0</v>
+        <v>14.39309055182458</v>
       </c>
     </row>
     <row r="26">
@@ -4341,148 +4341,148 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>17.66912437386178</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>30.78440204018525</v>
+        <v>18.79824408444231</v>
       </c>
       <c r="E26" t="n">
-        <v>25.87884248279795</v>
+        <v>27.64372121653141</v>
       </c>
       <c r="F26" t="n">
-        <v>9.463060340918926</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>30.11279761652247</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>19.19742185241517</v>
+        <v>36.46533987913173</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>40.35608287494451</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>2.991400683920066</v>
       </c>
       <c r="K26" t="n">
-        <v>35.15280491333289</v>
+        <v>202.5673781561866</v>
       </c>
       <c r="L26" t="n">
-        <v>88.6096898482961</v>
+        <v>198.9631615041582</v>
       </c>
       <c r="M26" t="n">
-        <v>26.47859563615857</v>
+        <v>106.3642350537205</v>
       </c>
       <c r="N26" t="n">
-        <v>61.93398920379009</v>
+        <v>25.98880655810405</v>
       </c>
       <c r="O26" t="n">
-        <v>84.56347816002022</v>
+        <v>43.85962881962775</v>
       </c>
       <c r="P26" t="n">
-        <v>61.03785889930559</v>
+        <v>48.0573073368074</v>
       </c>
       <c r="Q26" t="n">
-        <v>105.5755186809829</v>
+        <v>93.25726161558674</v>
       </c>
       <c r="R26" t="n">
-        <v>70.77321586108798</v>
+        <v>28.97240833966653</v>
       </c>
       <c r="S26" t="n">
-        <v>60.50995174292642</v>
+        <v>54.4289759584782</v>
       </c>
       <c r="T26" t="n">
-        <v>77.45987570546828</v>
+        <v>44.70299959320383</v>
       </c>
       <c r="U26" t="n">
-        <v>38.40352912118826</v>
+        <v>44.65114130533084</v>
       </c>
       <c r="V26" t="n">
-        <v>92.38110021864188</v>
+        <v>17.1551322546212</v>
       </c>
       <c r="W26" t="n">
-        <v>59.04320169387414</v>
+        <v>41.18272466143242</v>
       </c>
       <c r="X26" t="n">
-        <v>87.37350065998484</v>
+        <v>28.66949218183585</v>
       </c>
       <c r="Y26" t="n">
-        <v>61.34041770424578</v>
+        <v>49.25317953476556</v>
       </c>
       <c r="Z26" t="n">
-        <v>127.294260134406</v>
+        <v>67.86152157538969</v>
       </c>
       <c r="AA26" t="n">
-        <v>59.56081033829939</v>
+        <v>110.0351719341095</v>
       </c>
       <c r="AB26" t="n">
-        <v>104.7181525797773</v>
+        <v>104.6993939965234</v>
       </c>
       <c r="AC26" t="n">
-        <v>99.84093777173314</v>
+        <v>106.3265979333005</v>
       </c>
       <c r="AD26" t="n">
-        <v>100.4768789317423</v>
+        <v>150.6857929048559</v>
       </c>
       <c r="AE26" t="n">
-        <v>49.07410229437772</v>
+        <v>179.6024935872296</v>
       </c>
       <c r="AF26" t="n">
-        <v>137.1919121414983</v>
+        <v>127.1040734471686</v>
       </c>
       <c r="AG26" t="n">
-        <v>127.1166507650541</v>
+        <v>116.7330938952494</v>
       </c>
       <c r="AH26" t="n">
-        <v>65.90064705690122</v>
+        <v>131.0972211166897</v>
       </c>
       <c r="AI26" t="n">
-        <v>72.450423991177</v>
+        <v>124.0409906548824</v>
       </c>
       <c r="AJ26" t="n">
-        <v>94.65599270734874</v>
+        <v>20.53666856718272</v>
       </c>
       <c r="AK26" t="n">
-        <v>25.49871885162775</v>
+        <v>51.56673517557337</v>
       </c>
       <c r="AL26" t="n">
-        <v>33.92900007019428</v>
+        <v>31.52654262914659</v>
       </c>
       <c r="AM26" t="n">
-        <v>47.99311087044629</v>
+        <v>22.78447299020561</v>
       </c>
       <c r="AN26" t="n">
-        <v>39.33303485974907</v>
+        <v>31.34766387243757</v>
       </c>
       <c r="AO26" t="n">
-        <v>85.26476391558245</v>
+        <v>22.85283210238232</v>
       </c>
       <c r="AP26" t="n">
-        <v>38.27179444361814</v>
+        <v>30.39956705038665</v>
       </c>
       <c r="AQ26" t="n">
-        <v>25.46852482789195</v>
+        <v>30.07421485529502</v>
       </c>
       <c r="AR26" t="n">
-        <v>27.98799164254774</v>
+        <v>12.80003448939427</v>
       </c>
       <c r="AS26" t="n">
-        <v>24.44485782428596</v>
+        <v>21.85860420518392</v>
       </c>
       <c r="AT26" t="n">
-        <v>18.34507036769246</v>
+        <v>19.60372216188192</v>
       </c>
       <c r="AU26" t="n">
-        <v>28.85668326116165</v>
+        <v>12.00976322045402</v>
       </c>
       <c r="AV26" t="n">
-        <v>17.04301923239719</v>
+        <v>14.19535463638019</v>
       </c>
       <c r="AW26" t="n">
-        <v>23.75497910033025</v>
+        <v>27.49570906245691</v>
       </c>
       <c r="AX26" t="n">
-        <v>20.50378354787838</v>
+        <v>14.07272117614226</v>
       </c>
     </row>
     <row r="27">
@@ -4493,148 +4493,148 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4366046137481473</v>
+        <v>3.289583893203408</v>
       </c>
       <c r="D27" t="n">
-        <v>2.608488261527265</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3000469499454642</v>
+        <v>1.38593789425533</v>
       </c>
       <c r="F27" t="n">
-        <v>2.569260426361964</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.070829133333068</v>
+        <v>2.237776327204112</v>
       </c>
       <c r="H27" t="n">
-        <v>0.4632673294201858</v>
+        <v>2.53534357125513</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>2.756818194533927</v>
       </c>
       <c r="J27" t="n">
-        <v>2.674679450150364</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>3.444344925669792</v>
+        <v>7.760000126054474</v>
       </c>
       <c r="L27" t="n">
-        <v>5.11959836893971</v>
+        <v>9.864567595264319</v>
       </c>
       <c r="M27" t="n">
-        <v>0.8281930355028896</v>
+        <v>5.312316209423611</v>
       </c>
       <c r="N27" t="n">
-        <v>1.205081127105107</v>
+        <v>2.01809427615342</v>
       </c>
       <c r="O27" t="n">
-        <v>5.606044047246672</v>
+        <v>13.36520450404111</v>
       </c>
       <c r="P27" t="n">
-        <v>7.01348633195863</v>
+        <v>1.97781762634969</v>
       </c>
       <c r="Q27" t="n">
-        <v>4.623640135173305</v>
+        <v>2.100377480813807</v>
       </c>
       <c r="R27" t="n">
-        <v>2.617992191563376</v>
+        <v>0.8657804074813529</v>
       </c>
       <c r="S27" t="n">
-        <v>7.445674948375134</v>
+        <v>2.456563690148503</v>
       </c>
       <c r="T27" t="n">
-        <v>1.432056068027707</v>
+        <v>6.923631120255774</v>
       </c>
       <c r="U27" t="n">
-        <v>2.820679374202456</v>
+        <v>9.937861571918615</v>
       </c>
       <c r="V27" t="n">
-        <v>0.5467529559275173</v>
+        <v>6.709120734962464</v>
       </c>
       <c r="W27" t="n">
-        <v>5.884778536981203</v>
+        <v>3.224942353448035</v>
       </c>
       <c r="X27" t="n">
-        <v>10.45250545128054</v>
+        <v>3.840792302062514</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.51638050663061</v>
+        <v>6.223593530286176</v>
       </c>
       <c r="Z27" t="n">
-        <v>6.956105493731346</v>
+        <v>3.543475065170647</v>
       </c>
       <c r="AA27" t="n">
-        <v>7.360869926812946</v>
+        <v>5.065545749103128</v>
       </c>
       <c r="AB27" t="n">
-        <v>2.225879693522836</v>
+        <v>6.570374158308804</v>
       </c>
       <c r="AC27" t="n">
-        <v>3.903614782973472</v>
+        <v>7.016692514616518</v>
       </c>
       <c r="AD27" t="n">
-        <v>9.775037465372082</v>
+        <v>3.063926316474584</v>
       </c>
       <c r="AE27" t="n">
-        <v>4.822062047476824</v>
+        <v>7.757374100874057</v>
       </c>
       <c r="AF27" t="n">
-        <v>5.626205337758472</v>
+        <v>5.013856817437722</v>
       </c>
       <c r="AG27" t="n">
-        <v>6.964690347364325</v>
+        <v>7.752781886756755</v>
       </c>
       <c r="AH27" t="n">
-        <v>3.258687955943075</v>
+        <v>2.604563222487135</v>
       </c>
       <c r="AI27" t="n">
-        <v>3.618324518152735</v>
+        <v>11.68481748658769</v>
       </c>
       <c r="AJ27" t="n">
-        <v>2.476512493129521</v>
+        <v>6.304508297769483</v>
       </c>
       <c r="AK27" t="n">
-        <v>3.844073151969524</v>
+        <v>4.140664797267879</v>
       </c>
       <c r="AL27" t="n">
-        <v>2.490570251540324</v>
+        <v>6.230501524478088</v>
       </c>
       <c r="AM27" t="n">
-        <v>5.40349597094892</v>
+        <v>4.781835803299483</v>
       </c>
       <c r="AN27" t="n">
-        <v>7.395052395759093</v>
+        <v>5.277032801867713</v>
       </c>
       <c r="AO27" t="n">
-        <v>3.83537688095445</v>
+        <v>4.282935192946118</v>
       </c>
       <c r="AP27" t="n">
-        <v>3.237604956377241</v>
+        <v>5.599371032566612</v>
       </c>
       <c r="AQ27" t="n">
-        <v>5.32053045973294</v>
+        <v>4.523497201418086</v>
       </c>
       <c r="AR27" t="n">
-        <v>3.224423077665744</v>
+        <v>3.472115304333838</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.747192151395952</v>
+        <v>1.445922131619931</v>
       </c>
       <c r="AT27" t="n">
-        <v>3.780914621242025</v>
+        <v>2.160728158273178</v>
       </c>
       <c r="AU27" t="n">
-        <v>2.401848658945116</v>
+        <v>3.626655214633389</v>
       </c>
       <c r="AV27" t="n">
-        <v>2.428452947998363</v>
+        <v>2.92493157510232</v>
       </c>
       <c r="AW27" t="n">
-        <v>0.4927940838415021</v>
+        <v>3.927214951125138</v>
       </c>
       <c r="AX27" t="n">
-        <v>2.11699477931984</v>
+        <v>3.086280464032786</v>
       </c>
     </row>
     <row r="28">
@@ -4645,148 +4645,148 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>11.77761781914674</v>
+        <v>9.947596003081348</v>
       </c>
       <c r="D28" t="n">
-        <v>11.16876096905548</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>8.48179562451786</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>6.422485737648845</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>22.22008535074785</v>
+        <v>91.20083548951774</v>
       </c>
       <c r="H28" t="n">
-        <v>83.42182925799429</v>
+        <v>0.2146285045026364</v>
       </c>
       <c r="I28" t="n">
-        <v>19.9262385313913</v>
+        <v>157.3845302524756</v>
       </c>
       <c r="J28" t="n">
-        <v>242.3483399515918</v>
+        <v>56.48280587563128</v>
       </c>
       <c r="K28" t="n">
-        <v>81.17433141426898</v>
+        <v>7.682545002711036</v>
       </c>
       <c r="L28" t="n">
-        <v>37.46013797361882</v>
+        <v>32.28971715514722</v>
       </c>
       <c r="M28" t="n">
-        <v>3.301683711387515</v>
+        <v>134.2284272266409</v>
       </c>
       <c r="N28" t="n">
-        <v>26.08770767830932</v>
+        <v>48.32907016738874</v>
       </c>
       <c r="O28" t="n">
-        <v>72.9640502729184</v>
+        <v>102.4323067133602</v>
       </c>
       <c r="P28" t="n">
-        <v>55.42656836951591</v>
+        <v>162.4164699249672</v>
       </c>
       <c r="Q28" t="n">
-        <v>63.65536938963021</v>
+        <v>110.4766458650814</v>
       </c>
       <c r="R28" t="n">
-        <v>39.59482114216925</v>
+        <v>75.94892632347509</v>
       </c>
       <c r="S28" t="n">
-        <v>40.87415342069001</v>
+        <v>58.39227673210326</v>
       </c>
       <c r="T28" t="n">
-        <v>48.9937089870701</v>
+        <v>58.94377140616987</v>
       </c>
       <c r="U28" t="n">
-        <v>96.56414394189967</v>
+        <v>43.93301523471838</v>
       </c>
       <c r="V28" t="n">
-        <v>87.61809074805848</v>
+        <v>31.38954611914827</v>
       </c>
       <c r="W28" t="n">
-        <v>53.13909758935004</v>
+        <v>41.02045304538768</v>
       </c>
       <c r="X28" t="n">
-        <v>68.40877652467711</v>
+        <v>53.15175451113662</v>
       </c>
       <c r="Y28" t="n">
-        <v>39.83503881803671</v>
+        <v>112.1127497716358</v>
       </c>
       <c r="Z28" t="n">
-        <v>36.95015129514252</v>
+        <v>63.58218116577687</v>
       </c>
       <c r="AA28" t="n">
-        <v>58.6144005229952</v>
+        <v>48.10893958531756</v>
       </c>
       <c r="AB28" t="n">
-        <v>67.01595936977102</v>
+        <v>79.4026355295936</v>
       </c>
       <c r="AC28" t="n">
-        <v>69.80516586685796</v>
+        <v>103.2979234681311</v>
       </c>
       <c r="AD28" t="n">
-        <v>100.5776206169135</v>
+        <v>105.0490216193105</v>
       </c>
       <c r="AE28" t="n">
-        <v>122.8391427249697</v>
+        <v>63.95255327074862</v>
       </c>
       <c r="AF28" t="n">
-        <v>75.45982473955256</v>
+        <v>36.91888188720043</v>
       </c>
       <c r="AG28" t="n">
-        <v>76.15190442611835</v>
+        <v>54.052542703718</v>
       </c>
       <c r="AH28" t="n">
-        <v>126.6503851877951</v>
+        <v>78.10111831876135</v>
       </c>
       <c r="AI28" t="n">
-        <v>19.1934640614566</v>
+        <v>38.70006143206864</v>
       </c>
       <c r="AJ28" t="n">
-        <v>53.31600876818774</v>
+        <v>38.58968003647462</v>
       </c>
       <c r="AK28" t="n">
-        <v>79.94844577196986</v>
+        <v>14.45811092106867</v>
       </c>
       <c r="AL28" t="n">
-        <v>26.9928916033338</v>
+        <v>15.74587438668862</v>
       </c>
       <c r="AM28" t="n">
-        <v>28.97450313268309</v>
+        <v>24.0963357883703</v>
       </c>
       <c r="AN28" t="n">
-        <v>30.32915382311839</v>
+        <v>29.74658499913892</v>
       </c>
       <c r="AO28" t="n">
-        <v>19.97337410533029</v>
+        <v>13.46577073700981</v>
       </c>
       <c r="AP28" t="n">
-        <v>22.98166499634399</v>
+        <v>5.167865940653022</v>
       </c>
       <c r="AQ28" t="n">
-        <v>10.81691746039791</v>
+        <v>15.39749219680522</v>
       </c>
       <c r="AR28" t="n">
-        <v>5.11164842873738</v>
+        <v>10.40950886957591</v>
       </c>
       <c r="AS28" t="n">
-        <v>29.96786086180104</v>
+        <v>13.89838852295462</v>
       </c>
       <c r="AT28" t="n">
-        <v>10.97327305072238</v>
+        <v>11.50789056199782</v>
       </c>
       <c r="AU28" t="n">
-        <v>23.93638686146619</v>
+        <v>60.27819097278483</v>
       </c>
       <c r="AV28" t="n">
-        <v>10.38807746665162</v>
+        <v>7.739314700316857</v>
       </c>
       <c r="AW28" t="n">
-        <v>16.2845412273039</v>
+        <v>9.460419430167185</v>
       </c>
       <c r="AX28" t="n">
-        <v>26.08549550182459</v>
+        <v>8.880033249460343</v>
       </c>
     </row>
     <row r="29">
@@ -4797,148 +4797,148 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>6.509824644072421</v>
+        <v>27.67559115754569</v>
       </c>
       <c r="D29" t="n">
-        <v>19.78854826953409</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>3.592597341270598</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>34.4579625709807</v>
+        <v>29.37983847976711</v>
       </c>
       <c r="G29" t="n">
-        <v>0.7463009648842784</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>38.00002740465925</v>
+        <v>20.75966515457739</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>2.140342972225186</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>38.13463048041834</v>
       </c>
       <c r="L29" t="n">
-        <v>140.4446986679698</v>
+        <v>20.11399505261921</v>
       </c>
       <c r="M29" t="n">
-        <v>51.69101525402503</v>
+        <v>38.01759758950561</v>
       </c>
       <c r="N29" t="n">
-        <v>27.19845404501313</v>
+        <v>31.44437029179802</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>16.42210510932391</v>
       </c>
       <c r="P29" t="n">
-        <v>68.18780773337065</v>
+        <v>80.46981933948496</v>
       </c>
       <c r="Q29" t="n">
-        <v>5.585726267983375</v>
+        <v>30.47047137396746</v>
       </c>
       <c r="R29" t="n">
-        <v>0.7583033527167231</v>
+        <v>116.0055531334128</v>
       </c>
       <c r="S29" t="n">
-        <v>35.71141959419631</v>
+        <v>46.82230690244595</v>
       </c>
       <c r="T29" t="n">
-        <v>55.87500714060538</v>
+        <v>27.45893702907417</v>
       </c>
       <c r="U29" t="n">
-        <v>17.24588685439351</v>
+        <v>87.49412553634727</v>
       </c>
       <c r="V29" t="n">
-        <v>50.41445540139032</v>
+        <v>10.67184734583662</v>
       </c>
       <c r="W29" t="n">
-        <v>22.2390533520754</v>
+        <v>37.72396313573419</v>
       </c>
       <c r="X29" t="n">
-        <v>92.82568293885961</v>
+        <v>54.07609221576583</v>
       </c>
       <c r="Y29" t="n">
-        <v>14.30017356773271</v>
+        <v>44.78978593761997</v>
       </c>
       <c r="Z29" t="n">
-        <v>55.68127056937475</v>
+        <v>26.68020857993091</v>
       </c>
       <c r="AA29" t="n">
-        <v>33.80804918351051</v>
+        <v>14.60916056179564</v>
       </c>
       <c r="AB29" t="n">
-        <v>62.95239751644104</v>
+        <v>69.03514509285404</v>
       </c>
       <c r="AC29" t="n">
-        <v>52.03180836931506</v>
+        <v>18.87295748649585</v>
       </c>
       <c r="AD29" t="n">
-        <v>24.15524012473129</v>
+        <v>21.37943948278215</v>
       </c>
       <c r="AE29" t="n">
-        <v>43.95848789318734</v>
+        <v>39.70781381644683</v>
       </c>
       <c r="AF29" t="n">
-        <v>11.80977730797134</v>
+        <v>11.07265981781246</v>
       </c>
       <c r="AG29" t="n">
-        <v>23.75922794279518</v>
+        <v>33.85180557482751</v>
       </c>
       <c r="AH29" t="n">
-        <v>23.69311538778475</v>
+        <v>44.1902207005931</v>
       </c>
       <c r="AI29" t="n">
-        <v>24.65262140908854</v>
+        <v>6.811591373772766</v>
       </c>
       <c r="AJ29" t="n">
-        <v>52.06606310915797</v>
+        <v>74.30651806259861</v>
       </c>
       <c r="AK29" t="n">
-        <v>25.13929641948544</v>
+        <v>54.73367532326925</v>
       </c>
       <c r="AL29" t="n">
-        <v>49.23463928200568</v>
+        <v>22.70676824398583</v>
       </c>
       <c r="AM29" t="n">
-        <v>34.30915859546099</v>
+        <v>48.97282662458097</v>
       </c>
       <c r="AN29" t="n">
-        <v>0.6259828356063821</v>
+        <v>45.51752799722097</v>
       </c>
       <c r="AO29" t="n">
-        <v>35.17378312905208</v>
+        <v>20.30294277717026</v>
       </c>
       <c r="AP29" t="n">
-        <v>5.697863267716766</v>
+        <v>6.658355992892526</v>
       </c>
       <c r="AQ29" t="n">
-        <v>3.210830567191839</v>
+        <v>45.7531048158063</v>
       </c>
       <c r="AR29" t="n">
-        <v>27.15845927771775</v>
+        <v>27.88846551472202</v>
       </c>
       <c r="AS29" t="n">
-        <v>13.39803288920909</v>
+        <v>6.934078199487071</v>
       </c>
       <c r="AT29" t="n">
-        <v>15.96604710565321</v>
+        <v>9.087279091303758</v>
       </c>
       <c r="AU29" t="n">
-        <v>18.11446469020782</v>
+        <v>26.27636202479532</v>
       </c>
       <c r="AV29" t="n">
-        <v>1.736668979755267</v>
+        <v>1.726137560908707</v>
       </c>
       <c r="AW29" t="n">
-        <v>33.79684125412872</v>
+        <v>23.6627369885184</v>
       </c>
       <c r="AX29" t="n">
-        <v>13.66074203707189</v>
+        <v>24.2837613966685</v>
       </c>
     </row>
     <row r="30">
@@ -4949,148 +4949,148 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>0.856990407645825</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>3.037307969647638</v>
+        <v>12.8086004647132</v>
       </c>
       <c r="E30" t="n">
-        <v>5.694874860100892</v>
+        <v>3.073566459310224</v>
       </c>
       <c r="F30" t="n">
-        <v>9.05746151062873</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>16.39665838853138</v>
+        <v>14.55478744375424</v>
       </c>
       <c r="H30" t="n">
-        <v>6.000963221360437</v>
+        <v>6.986359148851772</v>
       </c>
       <c r="I30" t="n">
-        <v>164.3274303574518</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>79.54509812009076</v>
       </c>
       <c r="K30" t="n">
-        <v>15.7379196580129</v>
+        <v>30.05519112085989</v>
       </c>
       <c r="L30" t="n">
-        <v>14.70115065156608</v>
+        <v>117.9690928128515</v>
       </c>
       <c r="M30" t="n">
-        <v>25.42616976903111</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>20.37901751478368</v>
+        <v>28.43521613556784</v>
       </c>
       <c r="O30" t="n">
-        <v>9.589649080045147</v>
+        <v>23.70404620373235</v>
       </c>
       <c r="P30" t="n">
-        <v>12.60025889886103</v>
+        <v>7.393852102206488</v>
       </c>
       <c r="Q30" t="n">
-        <v>19.26810240174057</v>
+        <v>14.53525570644683</v>
       </c>
       <c r="R30" t="n">
-        <v>36.76452606875765</v>
+        <v>6.996286969910186</v>
       </c>
       <c r="S30" t="n">
-        <v>17.33903463908875</v>
+        <v>59.84934458391688</v>
       </c>
       <c r="T30" t="n">
-        <v>12.83173319072829</v>
+        <v>23.42184899407444</v>
       </c>
       <c r="U30" t="n">
-        <v>21.23501726893196</v>
+        <v>35.77547147103867</v>
       </c>
       <c r="V30" t="n">
-        <v>18.24779769919803</v>
+        <v>15.9505448422686</v>
       </c>
       <c r="W30" t="n">
-        <v>13.57352385511066</v>
+        <v>27.98614643400834</v>
       </c>
       <c r="X30" t="n">
-        <v>31.10438549564881</v>
+        <v>35.80833907713601</v>
       </c>
       <c r="Y30" t="n">
-        <v>26.669012897127</v>
+        <v>23.07655881570144</v>
       </c>
       <c r="Z30" t="n">
-        <v>23.48048316750116</v>
+        <v>39.17751911036174</v>
       </c>
       <c r="AA30" t="n">
-        <v>22.81006541720383</v>
+        <v>19.9856768915664</v>
       </c>
       <c r="AB30" t="n">
-        <v>16.97849728388261</v>
+        <v>12.5479241180483</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.765487357989342</v>
+        <v>25.64687653727123</v>
       </c>
       <c r="AD30" t="n">
-        <v>14.60944526437785</v>
+        <v>17.76769579308056</v>
       </c>
       <c r="AE30" t="n">
-        <v>31.94947605751518</v>
+        <v>21.62422390293301</v>
       </c>
       <c r="AF30" t="n">
-        <v>18.99749031169631</v>
+        <v>12.31386586633151</v>
       </c>
       <c r="AG30" t="n">
-        <v>16.26470439679214</v>
+        <v>17.71158785079793</v>
       </c>
       <c r="AH30" t="n">
-        <v>7.713977131007642</v>
+        <v>5.860530508486891</v>
       </c>
       <c r="AI30" t="n">
-        <v>6.831877476238465</v>
+        <v>12.01004648170485</v>
       </c>
       <c r="AJ30" t="n">
-        <v>10.71499413394639</v>
+        <v>23.04252555168379</v>
       </c>
       <c r="AK30" t="n">
-        <v>21.08363061254745</v>
+        <v>4.893617259462566</v>
       </c>
       <c r="AL30" t="n">
-        <v>2.109322733130111</v>
+        <v>22.74489937936934</v>
       </c>
       <c r="AM30" t="n">
-        <v>5.162396246542287</v>
+        <v>3.776589938886004</v>
       </c>
       <c r="AN30" t="n">
-        <v>6.931997344389141</v>
+        <v>0.6020175339494487</v>
       </c>
       <c r="AO30" t="n">
-        <v>6.868654461988987</v>
+        <v>3.657112133536981</v>
       </c>
       <c r="AP30" t="n">
-        <v>3.872390866461811</v>
+        <v>5.939690057212599</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.189030365827272</v>
+        <v>1.866404025197069</v>
       </c>
       <c r="AR30" t="n">
-        <v>3.434898986271943</v>
+        <v>5.665487821706808</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.04928868151176</v>
+        <v>2.19802489709005</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.515948331245577</v>
+        <v>2.447636424417149</v>
       </c>
       <c r="AU30" t="n">
-        <v>3.45936835878353</v>
+        <v>1.242768132515917</v>
       </c>
       <c r="AV30" t="n">
-        <v>4.009911782464362</v>
+        <v>1.647063064397013</v>
       </c>
       <c r="AW30" t="n">
-        <v>3.270034804321225</v>
+        <v>1.762383648499387</v>
       </c>
       <c r="AX30" t="n">
-        <v>0.5858245450297241</v>
+        <v>2.379038033894174</v>
       </c>
     </row>
     <row r="31">
@@ -5101,148 +5101,148 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>7.563760423451887</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.653706746429269</v>
       </c>
       <c r="E31" t="n">
-        <v>2.622394698459568</v>
+        <v>5.349088912700457</v>
       </c>
       <c r="F31" t="n">
-        <v>8.05732723379829</v>
+        <v>5.021723684270772</v>
       </c>
       <c r="G31" t="n">
-        <v>22.94309456689419</v>
+        <v>19.88215956545071</v>
       </c>
       <c r="H31" t="n">
-        <v>22.0068707879628</v>
+        <v>1.055289521894964</v>
       </c>
       <c r="I31" t="n">
-        <v>164.2435302142932</v>
+        <v>36.85741357433766</v>
       </c>
       <c r="J31" t="n">
-        <v>35.47837589213191</v>
+        <v>8.926090294237543</v>
       </c>
       <c r="K31" t="n">
-        <v>4.952135744839833</v>
+        <v>68.5479612475829</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>30.34200702535631</v>
       </c>
       <c r="M31" t="n">
-        <v>40.81494834636179</v>
+        <v>27.86141270525574</v>
       </c>
       <c r="N31" t="n">
-        <v>32.65302556864024</v>
+        <v>65.05568636213287</v>
       </c>
       <c r="O31" t="n">
-        <v>28.89762361052574</v>
+        <v>50.36172632979206</v>
       </c>
       <c r="P31" t="n">
-        <v>46.81678762977829</v>
+        <v>122.8411563670811</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.16267893373954</v>
+        <v>56.7741863093929</v>
       </c>
       <c r="R31" t="n">
-        <v>40.83885631737985</v>
+        <v>49.29206654258131</v>
       </c>
       <c r="S31" t="n">
-        <v>34.46409805897897</v>
+        <v>42.43952418128512</v>
       </c>
       <c r="T31" t="n">
-        <v>52.67503720649881</v>
+        <v>13.09603494141782</v>
       </c>
       <c r="U31" t="n">
-        <v>22.20386896596369</v>
+        <v>31.95416865499916</v>
       </c>
       <c r="V31" t="n">
-        <v>24.27797910440937</v>
+        <v>40.83189394020398</v>
       </c>
       <c r="W31" t="n">
-        <v>28.79210021561563</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0.2873774143719903</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>33.1240870600353</v>
+        <v>30.57559162298424</v>
       </c>
       <c r="Z31" t="n">
-        <v>33.06402032831047</v>
+        <v>5.567483918923124</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>1.437199043507317</v>
       </c>
       <c r="AB31" t="n">
-        <v>16.13947173118063</v>
+        <v>0</v>
       </c>
       <c r="AC31" t="n">
-        <v>10.21910687497004</v>
+        <v>12.86822587069667</v>
       </c>
       <c r="AD31" t="n">
-        <v>9.632245955915501</v>
+        <v>15.87933758579255</v>
       </c>
       <c r="AE31" t="n">
-        <v>31.93714291126524</v>
+        <v>2.066950242888382</v>
       </c>
       <c r="AF31" t="n">
-        <v>6.36351447870137</v>
+        <v>0</v>
       </c>
       <c r="AG31" t="n">
-        <v>24.07972400503112</v>
+        <v>10.05201290405901</v>
       </c>
       <c r="AH31" t="n">
-        <v>39.53242230284307</v>
+        <v>14.02008117799187</v>
       </c>
       <c r="AI31" t="n">
-        <v>6.217225756115081</v>
+        <v>37.36322574218281</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0</v>
+        <v>3.499292569716263</v>
       </c>
       <c r="AK31" t="n">
-        <v>1.538233801335759</v>
+        <v>4.813154748707065</v>
       </c>
       <c r="AL31" t="n">
-        <v>12.13512290295774</v>
+        <v>0</v>
       </c>
       <c r="AM31" t="n">
-        <v>15.49069515129631</v>
+        <v>7.697409967618448</v>
       </c>
       <c r="AN31" t="n">
-        <v>1.112535203244175</v>
+        <v>3.947452854193655</v>
       </c>
       <c r="AO31" t="n">
-        <v>23.49166691703503</v>
+        <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>9.003126792178071</v>
+        <v>22.81652146801472</v>
       </c>
       <c r="AQ31" t="n">
-        <v>7.727083926060915</v>
+        <v>8.303304096920954</v>
       </c>
       <c r="AR31" t="n">
-        <v>11.60350460296277</v>
+        <v>12.38884464510839</v>
       </c>
       <c r="AS31" t="n">
-        <v>4.603072686994162</v>
+        <v>4.779754141185252</v>
       </c>
       <c r="AT31" t="n">
-        <v>6.461689077468782</v>
+        <v>0</v>
       </c>
       <c r="AU31" t="n">
-        <v>8.049171815165636</v>
+        <v>2.090322064763773</v>
       </c>
       <c r="AV31" t="n">
-        <v>5.855673220467954</v>
+        <v>8.054651126022415</v>
       </c>
       <c r="AW31" t="n">
-        <v>7.054346251356026</v>
+        <v>5.952651771796862</v>
       </c>
       <c r="AX31" t="n">
-        <v>7.970420432477896</v>
+        <v>6.874695371320092</v>
       </c>
     </row>
   </sheetData>
